--- a/outputs-HGR-r202/p__Firmicutes_C.xlsx
+++ b/outputs-HGR-r202/p__Firmicutes_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D432"/>
+  <dimension ref="A1:E432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1715,6 +2065,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1733,6 +2088,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1751,6 +2111,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1769,6 +2134,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1787,6 +2157,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1805,6 +2180,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1823,6 +2203,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1841,6 +2226,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1859,6 +2249,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1877,6 +2272,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1895,6 +2295,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1913,6 +2318,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1931,6 +2341,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1949,6 +2364,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1967,6 +2387,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1985,6 +2410,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2003,6 +2433,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2021,6 +2456,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2039,6 +2479,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2057,6 +2502,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2075,6 +2525,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2093,6 +2548,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2111,6 +2571,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2129,6 +2594,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2147,6 +2617,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2165,6 +2640,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2183,6 +2663,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2201,6 +2686,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2219,6 +2709,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2237,6 +2732,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2255,6 +2755,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2273,6 +2778,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2291,6 +2801,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2309,6 +2824,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2327,6 +2847,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2345,6 +2870,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2363,6 +2893,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2381,6 +2916,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2399,6 +2939,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2417,6 +2962,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2435,6 +2985,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2453,6 +3008,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2471,6 +3031,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2489,6 +3054,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2507,6 +3077,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2525,6 +3100,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2543,6 +3123,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2561,6 +3146,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2579,6 +3169,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2597,6 +3192,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2615,6 +3215,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2633,6 +3238,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2651,6 +3261,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2669,6 +3284,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2687,6 +3307,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2705,6 +3330,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2723,6 +3353,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2741,6 +3376,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2759,6 +3399,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2777,6 +3422,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2795,6 +3445,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2813,6 +3468,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2831,6 +3491,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2849,6 +3514,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2867,6 +3537,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2885,6 +3560,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2903,6 +3583,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2921,6 +3606,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2939,6 +3629,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2957,6 +3652,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2975,6 +3675,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2993,6 +3698,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3011,6 +3721,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3029,6 +3744,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3047,6 +3767,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3065,6 +3790,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3083,6 +3813,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3101,6 +3836,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -3119,6 +3859,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3137,6 +3882,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3155,6 +3905,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3173,6 +3928,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3191,6 +3951,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3209,6 +3974,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3227,6 +3997,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3245,6 +4020,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3263,6 +4043,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3281,6 +4066,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -3299,6 +4089,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3317,6 +4112,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3335,6 +4135,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -3353,6 +4158,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -3371,6 +4181,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -3389,6 +4204,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -3407,6 +4227,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -3425,6 +4250,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -3443,6 +4273,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3461,6 +4296,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -3479,6 +4319,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -3497,6 +4342,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -3515,6 +4365,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -3533,6 +4388,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -3551,6 +4411,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -3569,6 +4434,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -3587,6 +4457,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -3605,6 +4480,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -3623,6 +4503,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -3641,6 +4526,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -3659,6 +4549,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -3677,6 +4572,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -3695,6 +4595,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -3713,6 +4618,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -3731,6 +4641,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -3749,6 +4664,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -3767,6 +4687,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -3785,6 +4710,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -3803,6 +4733,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -3821,6 +4756,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -3839,6 +4779,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -3857,6 +4802,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -3875,6 +4825,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -3893,6 +4848,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -3911,6 +4871,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -3929,6 +4894,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -3947,6 +4917,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -3965,6 +4940,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -3983,6 +4963,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -4001,6 +4986,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -4019,6 +5009,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -4037,6 +5032,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -4055,6 +5055,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -4073,6 +5078,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -4091,6 +5101,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -4109,6 +5124,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -4127,6 +5147,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -4145,6 +5170,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -4163,6 +5193,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -4181,6 +5216,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -4199,6 +5239,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -4217,6 +5262,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -4235,6 +5285,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -4253,6 +5308,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -4271,6 +5331,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -4289,6 +5354,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -4307,6 +5377,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -4325,6 +5400,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -4343,6 +5423,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -4361,6 +5446,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -4379,6 +5469,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -4397,6 +5492,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -4415,6 +5515,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -4433,6 +5538,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -4451,6 +5561,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -4469,6 +5584,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -4487,6 +5607,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -4505,6 +5630,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -4523,6 +5653,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -4541,6 +5676,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -4559,6 +5699,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -4577,6 +5722,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -4595,6 +5745,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -4613,6 +5768,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -4631,6 +5791,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -4649,6 +5814,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -4667,6 +5837,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -4685,6 +5860,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -4703,6 +5883,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -4721,6 +5906,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -4739,6 +5929,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -4757,6 +5952,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -4775,6 +5975,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -4793,6 +5998,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -4811,6 +6021,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -4829,6 +6044,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -4847,6 +6067,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -4865,6 +6090,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -4883,6 +6113,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -4901,6 +6136,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -4919,6 +6159,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -4937,6 +6182,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -4955,6 +6205,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -4973,6 +6228,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -4991,6 +6251,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -5009,6 +6274,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -5027,6 +6297,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -5045,6 +6320,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -5063,6 +6343,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -5081,6 +6366,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -5099,6 +6389,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -5117,6 +6412,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -5135,6 +6435,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -5153,6 +6458,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -5171,6 +6481,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -5189,6 +6504,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -5207,6 +6527,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -5225,6 +6550,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -5243,6 +6573,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -5261,6 +6596,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -5279,6 +6619,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -5297,6 +6642,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -5315,6 +6665,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -5333,6 +6688,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -5351,6 +6711,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -5369,6 +6734,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -5387,6 +6757,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -5405,6 +6780,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -5423,6 +6803,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -5441,6 +6826,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -5459,6 +6849,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -5477,6 +6872,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -5495,6 +6895,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -5513,6 +6918,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -5531,6 +6941,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -5549,6 +6964,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -5567,6 +6987,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -5585,6 +7010,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -5603,6 +7033,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -5621,6 +7056,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -5639,6 +7079,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -5657,6 +7102,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -5675,6 +7125,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -5693,6 +7148,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -5711,6 +7171,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -5729,6 +7194,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -5747,6 +7217,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -5765,6 +7240,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -5783,6 +7263,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -5801,6 +7286,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -5819,6 +7309,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -5837,6 +7332,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -5855,6 +7355,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -5873,6 +7378,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -5891,6 +7401,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -5909,6 +7424,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -5927,6 +7447,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -5945,6 +7470,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -5963,6 +7493,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -5981,6 +7516,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -5999,6 +7539,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -6017,6 +7562,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -6035,6 +7585,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -6053,6 +7608,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -6071,6 +7631,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -6089,6 +7654,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -6107,6 +7677,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -6125,6 +7700,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -6143,6 +7723,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -6161,6 +7746,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -6179,6 +7769,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -6197,6 +7792,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -6215,6 +7815,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -6233,6 +7838,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -6251,6 +7861,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -6269,6 +7884,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -6287,6 +7907,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -6305,6 +7930,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -6323,6 +7953,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -6341,6 +7976,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -6359,6 +7999,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -6377,6 +8022,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -6395,6 +8045,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -6413,6 +8068,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -6431,6 +8091,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -6449,6 +8114,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -6467,6 +8137,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -6485,6 +8160,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -6503,6 +8183,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -6521,6 +8206,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -6539,6 +8229,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -6557,6 +8252,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -6575,6 +8275,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -6593,6 +8298,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -6611,6 +8321,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -6629,6 +8344,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -6647,6 +8367,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -6665,6 +8390,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -6683,6 +8413,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -6701,6 +8436,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -6719,6 +8459,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -6737,6 +8482,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -6755,6 +8505,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -6773,6 +8528,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -6791,6 +8551,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -6809,6 +8574,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -6827,6 +8597,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -6845,6 +8620,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -6863,6 +8643,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -6881,6 +8666,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -6899,6 +8689,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -6917,6 +8712,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -6935,6 +8735,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -6953,6 +8758,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -6971,6 +8781,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -6989,6 +8804,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -7007,6 +8827,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -7025,6 +8850,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -7043,6 +8873,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -7061,6 +8896,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -7079,6 +8919,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -7097,6 +8942,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -7115,6 +8965,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -7133,6 +8988,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -7151,6 +9011,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -7169,6 +9034,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -7187,6 +9057,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -7205,6 +9080,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -7223,6 +9103,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -7241,6 +9126,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -7259,6 +9149,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -7277,6 +9172,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -7295,6 +9195,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -7313,6 +9218,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -7331,6 +9241,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -7349,6 +9264,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -7367,6 +9287,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -7385,6 +9310,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -7403,6 +9333,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -7421,6 +9356,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -7439,6 +9379,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -7457,6 +9402,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -7475,6 +9425,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -7493,6 +9448,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -7511,6 +9471,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -7529,6 +9494,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -7547,6 +9517,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -7565,6 +9540,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -7583,6 +9563,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -7601,6 +9586,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -7619,6 +9609,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -7637,6 +9632,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -7655,6 +9655,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -7673,6 +9678,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -7691,6 +9701,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -7709,6 +9724,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -7727,6 +9747,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -7745,6 +9770,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -7763,6 +9793,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -7781,6 +9816,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -7799,6 +9839,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -7817,6 +9862,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -7835,6 +9885,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -7853,6 +9908,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -7871,6 +9931,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -7889,6 +9954,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -7907,6 +9977,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -7925,6 +10000,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -7943,6 +10023,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -7961,6 +10046,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -7979,6 +10069,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -7997,6 +10092,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -8015,6 +10115,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -8033,6 +10138,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -8051,6 +10161,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -8069,6 +10184,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -8087,6 +10207,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -8105,6 +10230,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -8123,6 +10253,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -8141,6 +10276,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -8159,6 +10299,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -8177,6 +10322,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -8195,6 +10345,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -8209,6 +10364,11 @@
         <v>1</v>
       </c>
       <c r="D432" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
         <is>
           <t>c__Negativicutes</t>
         </is>

--- a/outputs-HGR-r202/p__Firmicutes_C.xlsx
+++ b/outputs-HGR-r202/p__Firmicutes_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +487,14 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10346.fa</t>
+          <t>even_MAG-GUT10270.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43548.99155260529</v>
+        <v>67583.37957682375</v>
       </c>
       <c r="C3" t="n">
-        <v>43548.99155260529</v>
+        <v>67583.37957682375</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -510,14 +510,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1049.fa</t>
+          <t>even_MAG-GUT10346.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87288.70509858614</v>
+        <v>43548.99155260529</v>
       </c>
       <c r="C4" t="n">
-        <v>87288.70509858614</v>
+        <v>43548.99155260529</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -533,14 +533,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1050.fa</t>
+          <t>even_MAG-GUT10398.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80574.67755695696</v>
+        <v>76992.49543020684</v>
       </c>
       <c r="C5" t="n">
-        <v>80574.67755695696</v>
+        <v>76992.49543020684</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,14 +556,14 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11020.fa</t>
+          <t>even_MAG-GUT1049.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81429.30232069929</v>
+        <v>87288.70509858614</v>
       </c>
       <c r="C6" t="n">
-        <v>81429.30232069929</v>
+        <v>87288.70509858614</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -579,14 +579,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11036.fa</t>
+          <t>even_MAG-GUT1050.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19879.36210745465</v>
+        <v>80574.67755695696</v>
       </c>
       <c r="C7" t="n">
-        <v>19879.36210745465</v>
+        <v>80574.67755695696</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -602,14 +602,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1198.fa</t>
+          <t>even_MAG-GUT10593.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84101.87513464371</v>
+        <v>92805.52427750212</v>
       </c>
       <c r="C8" t="n">
-        <v>84101.87513464371</v>
+        <v>92805.52427750212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1206.fa</t>
+          <t>even_MAG-GUT10625.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75108.20022354762</v>
+        <v>45444.47323965353</v>
       </c>
       <c r="C9" t="n">
-        <v>75108.20022354762</v>
+        <v>45444.47323965353</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -648,14 +648,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1212.fa</t>
+          <t>even_MAG-GUT11020.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75108.20022354762</v>
+        <v>81429.30232069929</v>
       </c>
       <c r="C10" t="n">
-        <v>75108.20022354762</v>
+        <v>81429.30232069929</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -671,14 +671,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1217.fa</t>
+          <t>even_MAG-GUT11036.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48046.82234901508</v>
+        <v>19879.36210745465</v>
       </c>
       <c r="C11" t="n">
-        <v>48046.82234901508</v>
+        <v>19879.36210745465</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -694,14 +694,14 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1227.fa</t>
+          <t>even_MAG-GUT11210.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75108.20022354762</v>
+        <v>93087.10250324276</v>
       </c>
       <c r="C12" t="n">
-        <v>75108.20022354762</v>
+        <v>93087.10250324276</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -717,14 +717,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1232.fa</t>
+          <t>even_MAG-GUT11332.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79776.20623742951</v>
+        <v>74961.51844755662</v>
       </c>
       <c r="C13" t="n">
-        <v>79776.20623742951</v>
+        <v>74961.51844755662</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -740,14 +740,14 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13227.fa</t>
+          <t>even_MAG-GUT11435.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41607.46667613028</v>
+        <v>44149.24316769466</v>
       </c>
       <c r="C14" t="n">
-        <v>41607.46667613028</v>
+        <v>44149.24316769466</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13322.fa</t>
+          <t>even_MAG-GUT1198.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86962.33864522634</v>
+        <v>84101.87513464371</v>
       </c>
       <c r="C15" t="n">
-        <v>86962.33864522634</v>
+        <v>84101.87513464371</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -786,14 +786,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13342.fa</t>
+          <t>even_MAG-GUT1206.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49327.50061177563</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="C16" t="n">
-        <v>49327.50061177563</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1355.fa</t>
+          <t>even_MAG-GUT1212.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79484.20221334478</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="C17" t="n">
-        <v>79484.20221334478</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -832,14 +832,14 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13749.fa</t>
+          <t>even_MAG-GUT1217.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41162.66294533045</v>
+        <v>48046.82234901508</v>
       </c>
       <c r="C18" t="n">
-        <v>41162.66294533045</v>
+        <v>48046.82234901508</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -855,14 +855,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13830.fa</t>
+          <t>even_MAG-GUT1227.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77996.00481220211</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="C19" t="n">
-        <v>77996.00481220211</v>
+        <v>75108.20022354762</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -878,14 +878,14 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13881.fa</t>
+          <t>even_MAG-GUT1232.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25467.45051514543</v>
+        <v>79776.20623742951</v>
       </c>
       <c r="C20" t="n">
-        <v>25467.45051514543</v>
+        <v>79776.20623742951</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -901,14 +901,14 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13999.fa</t>
+          <t>even_MAG-GUT13045.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69999.93685702908</v>
+        <v>62837.86426271884</v>
       </c>
       <c r="C21" t="n">
-        <v>69999.93685702908</v>
+        <v>62837.86426271884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -924,14 +924,14 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14159.fa</t>
+          <t>even_MAG-GUT13227.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85711.90063623409</v>
+        <v>41607.46667613028</v>
       </c>
       <c r="C22" t="n">
-        <v>85711.90063623409</v>
+        <v>41607.46667613028</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -947,14 +947,14 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14532.fa</t>
+          <t>even_MAG-GUT13322.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31020.46751289672</v>
+        <v>86962.33864522634</v>
       </c>
       <c r="C23" t="n">
-        <v>31020.46751289672</v>
+        <v>86962.33864522634</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -970,14 +970,14 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1470.fa</t>
+          <t>even_MAG-GUT13342.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92086.50388801047</v>
+        <v>49327.50061177563</v>
       </c>
       <c r="C24" t="n">
-        <v>92086.50388801047</v>
+        <v>49327.50061177563</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -993,14 +993,14 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15061.fa</t>
+          <t>even_MAG-GUT1355.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42638.32063944715</v>
+        <v>79484.20221334478</v>
       </c>
       <c r="C25" t="n">
-        <v>42638.32063944715</v>
+        <v>79484.20221334478</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15089.fa</t>
+          <t>even_MAG-GUT13749.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41462.02928922682</v>
+        <v>41162.66294533045</v>
       </c>
       <c r="C26" t="n">
-        <v>41462.02928922682</v>
+        <v>41162.66294533045</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1039,14 +1039,14 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15427.fa</t>
+          <t>even_MAG-GUT13830.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>41780.0440034333</v>
+        <v>77996.00481220211</v>
       </c>
       <c r="C27" t="n">
-        <v>41780.0440034333</v>
+        <v>77996.00481220211</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1062,14 +1062,14 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1556.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80362.98296148285</v>
+        <v>25467.45051514543</v>
       </c>
       <c r="C28" t="n">
-        <v>80362.98296148285</v>
+        <v>25467.45051514543</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1085,14 +1085,14 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1559.fa</t>
+          <t>even_MAG-GUT13999.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82046.8914475049</v>
+        <v>69999.93685702908</v>
       </c>
       <c r="C29" t="n">
-        <v>82046.8914475049</v>
+        <v>69999.93685702908</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1108,14 +1108,14 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15625.fa</t>
+          <t>even_MAG-GUT14159.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11328.23330030701</v>
+        <v>85711.90063623409</v>
       </c>
       <c r="C30" t="n">
-        <v>11328.23330030701</v>
+        <v>85711.90063623409</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1131,14 +1131,14 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15797.fa</t>
+          <t>even_MAG-GUT14532.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80917.95828185078</v>
+        <v>31020.46751289672</v>
       </c>
       <c r="C31" t="n">
-        <v>80917.95828185078</v>
+        <v>31020.46751289672</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1154,14 +1154,14 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1584.fa</t>
+          <t>even_MAG-GUT1470.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56670.75383407218</v>
+        <v>92086.50388801047</v>
       </c>
       <c r="C32" t="n">
-        <v>56670.75383407218</v>
+        <v>92086.50388801047</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1177,14 +1177,14 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16129.fa</t>
+          <t>even_MAG-GUT14741.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36224.63196690475</v>
+        <v>62837.86426271884</v>
       </c>
       <c r="C33" t="n">
-        <v>36224.63196690475</v>
+        <v>62837.86426271884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1200,14 +1200,14 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16712.fa</t>
+          <t>even_MAG-GUT15061.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62285.13738337821</v>
+        <v>42638.32063944715</v>
       </c>
       <c r="C34" t="n">
-        <v>62285.13738337821</v>
+        <v>42638.32063944715</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1223,14 +1223,14 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17170.fa</t>
+          <t>even_MAG-GUT15089.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87848.70543396407</v>
+        <v>41462.02928922682</v>
       </c>
       <c r="C35" t="n">
-        <v>87848.70543396407</v>
+        <v>41462.02928922682</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1246,14 +1246,14 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17254.fa</t>
+          <t>even_MAG-GUT15427.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>44974.53505795026</v>
+        <v>41780.0440034333</v>
       </c>
       <c r="C36" t="n">
-        <v>44974.53505795026</v>
+        <v>41780.0440034333</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1269,14 +1269,14 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17401.fa</t>
+          <t>even_MAG-GUT1556.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39011.77194312039</v>
+        <v>80362.98296148285</v>
       </c>
       <c r="C37" t="n">
-        <v>39011.77194312039</v>
+        <v>80362.98296148285</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1292,14 +1292,14 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17473.fa</t>
+          <t>even_MAG-GUT1559.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>76338.75045181358</v>
+        <v>82046.8914475049</v>
       </c>
       <c r="C38" t="n">
-        <v>76338.75045181358</v>
+        <v>82046.8914475049</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1315,14 +1315,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17664.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>74924.29023248445</v>
+        <v>11328.23330030701</v>
       </c>
       <c r="C39" t="n">
-        <v>74924.29023248445</v>
+        <v>11328.23330030701</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1338,14 +1338,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17671.fa</t>
+          <t>even_MAG-GUT15742.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98831.91645859249</v>
+        <v>50511.80873543517</v>
       </c>
       <c r="C40" t="n">
-        <v>98831.91645859249</v>
+        <v>50511.80873543517</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1361,14 +1361,14 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18195.fa</t>
+          <t>even_MAG-GUT15797.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18412.57230505376</v>
+        <v>80917.95828185078</v>
       </c>
       <c r="C41" t="n">
-        <v>18412.57230505376</v>
+        <v>80917.95828185078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1384,14 +1384,14 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18210.fa</t>
+          <t>even_MAG-GUT1584.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15440.93796048717</v>
+        <v>56670.75383407218</v>
       </c>
       <c r="C42" t="n">
-        <v>15440.93796048717</v>
+        <v>56670.75383407218</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1407,14 +1407,14 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18233.fa</t>
+          <t>even_MAG-GUT16129.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48346.83931454252</v>
+        <v>36224.63196690475</v>
       </c>
       <c r="C43" t="n">
-        <v>48346.83931454252</v>
+        <v>36224.63196690475</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1430,14 +1430,14 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18312.fa</t>
+          <t>even_MAG-GUT16712.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29462.58646678072</v>
+        <v>62285.13738337821</v>
       </c>
       <c r="C44" t="n">
-        <v>29462.58646678072</v>
+        <v>62285.13738337821</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1453,14 +1453,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1840.fa</t>
+          <t>even_MAG-GUT1677.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93064.06210785994</v>
+        <v>62326.98817688429</v>
       </c>
       <c r="C45" t="n">
-        <v>93064.06210785994</v>
+        <v>62326.98817688429</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18785.fa</t>
+          <t>even_MAG-GUT17170.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45099.51596278012</v>
+        <v>87848.70543396407</v>
       </c>
       <c r="C46" t="n">
-        <v>45099.51596278012</v>
+        <v>87848.70543396407</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18897.fa</t>
+          <t>even_MAG-GUT17254.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>47096.84008748906</v>
+        <v>44974.53505795026</v>
       </c>
       <c r="C47" t="n">
-        <v>47096.84008748906</v>
+        <v>44974.53505795026</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18970.fa</t>
+          <t>even_MAG-GUT17255.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>43619.69969778511</v>
+        <v>83801.32917800774</v>
       </c>
       <c r="C48" t="n">
-        <v>43619.69969778511</v>
+        <v>83801.32917800774</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1930.fa</t>
+          <t>even_MAG-GUT17401.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>79295.40720380931</v>
+        <v>39011.77194312039</v>
       </c>
       <c r="C49" t="n">
-        <v>79295.40720380931</v>
+        <v>39011.77194312039</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1568,14 +1568,14 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19307.fa</t>
+          <t>even_MAG-GUT17473.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>41108.6059990865</v>
+        <v>76338.75045181358</v>
       </c>
       <c r="C50" t="n">
-        <v>41108.6059990865</v>
+        <v>76338.75045181358</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1591,14 +1591,14 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19429.fa</t>
+          <t>even_MAG-GUT17515.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>43735.62081324079</v>
+        <v>73051.97624670134</v>
       </c>
       <c r="C51" t="n">
-        <v>43735.62081324079</v>
+        <v>73051.97624670134</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1614,14 +1614,14 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1954.fa</t>
+          <t>even_MAG-GUT17664.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>73753.2723042084</v>
+        <v>74924.29023248445</v>
       </c>
       <c r="C52" t="n">
-        <v>73753.2723042084</v>
+        <v>74924.29023248445</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1637,14 +1637,14 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19990.fa</t>
+          <t>even_MAG-GUT17671.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>48863.66001894219</v>
+        <v>98831.91645859249</v>
       </c>
       <c r="C53" t="n">
-        <v>48863.66001894219</v>
+        <v>98831.91645859249</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1660,14 +1660,14 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20294.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>41815.30081656241</v>
+        <v>18412.57230505376</v>
       </c>
       <c r="C54" t="n">
-        <v>41815.30081656241</v>
+        <v>18412.57230505376</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1683,14 +1683,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2031.fa</t>
+          <t>even_MAG-GUT18210.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>84700.48215487108</v>
+        <v>15440.93796048717</v>
       </c>
       <c r="C55" t="n">
-        <v>84700.48215487108</v>
+        <v>15440.93796048717</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1706,14 +1706,14 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20416.fa</t>
+          <t>even_MAG-GUT18233.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40919.80041307554</v>
+        <v>48346.83931454252</v>
       </c>
       <c r="C56" t="n">
-        <v>40919.80041307554</v>
+        <v>48346.83931454252</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2053.fa</t>
+          <t>even_MAG-GUT18312.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>67904.88179880982</v>
+        <v>29462.58646678072</v>
       </c>
       <c r="C57" t="n">
-        <v>67904.88179880982</v>
+        <v>29462.58646678072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1752,14 +1752,14 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2061.fa</t>
+          <t>even_MAG-GUT1840.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>63202.80116751679</v>
+        <v>93064.06210785994</v>
       </c>
       <c r="C58" t="n">
-        <v>63202.80116751679</v>
+        <v>93064.06210785994</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1775,14 +1775,14 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20639.fa</t>
+          <t>even_MAG-GUT18785.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>27747.36780287871</v>
+        <v>45099.51596278012</v>
       </c>
       <c r="C59" t="n">
-        <v>27747.36780287871</v>
+        <v>45099.51596278012</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1798,14 +1798,14 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2081.fa</t>
+          <t>even_MAG-GUT18897.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>74444.41489704199</v>
+        <v>47096.84008748906</v>
       </c>
       <c r="C60" t="n">
-        <v>74444.41489704199</v>
+        <v>47096.84008748906</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1821,14 +1821,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2086.fa</t>
+          <t>even_MAG-GUT18970.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>80531.39698930745</v>
+        <v>43619.69969778511</v>
       </c>
       <c r="C61" t="n">
-        <v>80531.39698930745</v>
+        <v>43619.69969778511</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1844,14 +1844,14 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21102.fa</t>
+          <t>even_MAG-GUT1930.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>51363.70000154385</v>
+        <v>79295.40720380931</v>
       </c>
       <c r="C62" t="n">
-        <v>51363.70000154385</v>
+        <v>79295.40720380931</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1867,14 +1867,14 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21682.fa</t>
+          <t>even_MAG-GUT19307.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>71608.30850705729</v>
+        <v>41108.6059990865</v>
       </c>
       <c r="C63" t="n">
-        <v>71608.30850705729</v>
+        <v>41108.6059990865</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1890,14 +1890,14 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23387.fa</t>
+          <t>even_MAG-GUT19429.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>29165.91818669276</v>
+        <v>43735.62081324079</v>
       </c>
       <c r="C64" t="n">
-        <v>29165.91818669276</v>
+        <v>43735.62081324079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1913,14 +1913,14 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23746.fa</t>
+          <t>even_MAG-GUT1954.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>88366.93080716705</v>
+        <v>73753.2723042084</v>
       </c>
       <c r="C65" t="n">
-        <v>88366.93080716705</v>
+        <v>73753.2723042084</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1936,14 +1936,14 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23754.fa</t>
+          <t>even_MAG-GUT19990.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>49152.30952732172</v>
+        <v>48863.66001894219</v>
       </c>
       <c r="C66" t="n">
-        <v>49152.30952732172</v>
+        <v>48863.66001894219</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1959,14 +1959,14 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24126.fa</t>
+          <t>even_MAG-GUT20287.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>46581.97400453835</v>
+        <v>76536.42176336395</v>
       </c>
       <c r="C67" t="n">
-        <v>46581.97400453835</v>
+        <v>76536.42176336395</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1982,14 +1982,14 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25075.fa</t>
+          <t>even_MAG-GUT20294.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16625.15841469997</v>
+        <v>41815.30081656241</v>
       </c>
       <c r="C68" t="n">
-        <v>16625.15841469997</v>
+        <v>41815.30081656241</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2005,14 +2005,14 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25223.fa</t>
+          <t>even_MAG-GUT2031.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>29657.60598352581</v>
+        <v>84700.48215487108</v>
       </c>
       <c r="C69" t="n">
-        <v>29657.60598352581</v>
+        <v>84700.48215487108</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2028,14 +2028,14 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25590.fa</t>
+          <t>even_MAG-GUT20416.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>59156.93358017479</v>
+        <v>40919.80041307554</v>
       </c>
       <c r="C70" t="n">
-        <v>59156.93358017479</v>
+        <v>40919.80041307554</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2051,14 +2051,14 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25650.fa</t>
+          <t>even_MAG-GUT2053.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>29046.49255458328</v>
+        <v>67904.88179880982</v>
       </c>
       <c r="C71" t="n">
-        <v>29046.49255458328</v>
+        <v>67904.88179880982</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2074,14 +2074,14 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2865.fa</t>
+          <t>even_MAG-GUT20540.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22403.44271440911</v>
+        <v>61639.6233767403</v>
       </c>
       <c r="C72" t="n">
-        <v>22403.44271440911</v>
+        <v>61639.6233767403</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2097,14 +2097,14 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29587.fa</t>
+          <t>even_MAG-GUT20603.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>35826.46513728703</v>
+        <v>67211.85754720801</v>
       </c>
       <c r="C73" t="n">
-        <v>35826.46513728703</v>
+        <v>67211.85754720801</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2120,14 +2120,14 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29781.fa</t>
+          <t>even_MAG-GUT2061.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>61432.99003866015</v>
+        <v>63202.80116751679</v>
       </c>
       <c r="C74" t="n">
-        <v>61432.99003866015</v>
+        <v>63202.80116751679</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2143,14 +2143,14 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29856.fa</t>
+          <t>even_MAG-GUT20639.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50172.62772212199</v>
+        <v>27747.36780287871</v>
       </c>
       <c r="C75" t="n">
-        <v>50172.62772212199</v>
+        <v>27747.36780287871</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29878.fa</t>
+          <t>even_MAG-GUT2081.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10882.10438245372</v>
+        <v>74444.41489704199</v>
       </c>
       <c r="C76" t="n">
-        <v>10882.10438245372</v>
+        <v>74444.41489704199</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2189,14 +2189,14 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30085.fa</t>
+          <t>even_MAG-GUT2086.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>43378.44871272461</v>
+        <v>80531.39698930745</v>
       </c>
       <c r="C77" t="n">
-        <v>43378.44871272461</v>
+        <v>80531.39698930745</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2212,14 +2212,14 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30091.fa</t>
+          <t>even_MAG-GUT21102.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>83116.92306584152</v>
+        <v>51363.70000154385</v>
       </c>
       <c r="C78" t="n">
-        <v>83116.92306584152</v>
+        <v>51363.70000154385</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2235,14 +2235,14 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30581.fa</t>
+          <t>even_MAG-GUT21682.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>63059.76801409532</v>
+        <v>71608.30850705729</v>
       </c>
       <c r="C79" t="n">
-        <v>63059.76801409532</v>
+        <v>71608.30850705729</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2258,14 +2258,14 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30699.fa</t>
+          <t>even_MAG-GUT2203.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>71955.9259330073</v>
+        <v>74611.49174714503</v>
       </c>
       <c r="C80" t="n">
-        <v>71955.9259330073</v>
+        <v>74611.49174714503</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2281,14 +2281,14 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31093.fa</t>
+          <t>even_MAG-GUT23387.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>56271.80420426396</v>
+        <v>29165.91818669276</v>
       </c>
       <c r="C81" t="n">
-        <v>56271.80420426396</v>
+        <v>29165.91818669276</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2304,14 +2304,14 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31302.fa</t>
+          <t>even_MAG-GUT23746.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>36090.43341281071</v>
+        <v>88366.93080716705</v>
       </c>
       <c r="C82" t="n">
-        <v>36090.43341281071</v>
+        <v>88366.93080716705</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2327,14 +2327,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31785.fa</t>
+          <t>even_MAG-GUT23754.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>43350.41442637955</v>
+        <v>49152.30952732172</v>
       </c>
       <c r="C83" t="n">
-        <v>43350.41442637955</v>
+        <v>49152.30952732172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2350,14 +2350,14 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32106.fa</t>
+          <t>even_MAG-GUT24052.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>61090.85922821796</v>
+        <v>70217.89225080935</v>
       </c>
       <c r="C84" t="n">
-        <v>61090.85922821796</v>
+        <v>70217.89225080935</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2373,14 +2373,14 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33511.fa</t>
+          <t>even_MAG-GUT24126.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>42059.26290455041</v>
+        <v>46581.97400453835</v>
       </c>
       <c r="C85" t="n">
-        <v>42059.26290455041</v>
+        <v>46581.97400453835</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2396,14 +2396,14 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33530.fa</t>
+          <t>even_MAG-GUT25048.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>38219.80032029872</v>
+        <v>61206.8823399672</v>
       </c>
       <c r="C86" t="n">
-        <v>38219.80032029872</v>
+        <v>61206.8823399672</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2419,14 +2419,14 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33604.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>47377.69803236231</v>
+        <v>16625.15841469997</v>
       </c>
       <c r="C87" t="n">
-        <v>47377.69803236231</v>
+        <v>16625.15841469997</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2442,14 +2442,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3377.fa</t>
+          <t>even_MAG-GUT25223.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>66779.24709785289</v>
+        <v>29657.60598352581</v>
       </c>
       <c r="C88" t="n">
-        <v>66779.24709785289</v>
+        <v>29657.60598352581</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2465,14 +2465,14 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34206.fa</t>
+          <t>even_MAG-GUT25340.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>37671.62470782132</v>
+        <v>65674.01949016255</v>
       </c>
       <c r="C89" t="n">
-        <v>37671.62470782132</v>
+        <v>65674.01949016255</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34421.fa</t>
+          <t>even_MAG-GUT25590.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>37623.89361541023</v>
+        <v>59156.93358017479</v>
       </c>
       <c r="C90" t="n">
-        <v>37623.89361541023</v>
+        <v>59156.93358017479</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2511,14 +2511,14 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34513.fa</t>
+          <t>even_MAG-GUT25650.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>42831.96832641996</v>
+        <v>29046.49255458328</v>
       </c>
       <c r="C91" t="n">
-        <v>42831.96832641996</v>
+        <v>29046.49255458328</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2534,14 +2534,14 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34778.fa</t>
+          <t>even_MAG-GUT2865.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>37623.89361541023</v>
+        <v>22403.44271440911</v>
       </c>
       <c r="C92" t="n">
-        <v>37623.89361541023</v>
+        <v>22403.44271440911</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2557,14 +2557,14 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35231.fa</t>
+          <t>even_MAG-GUT29189.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>38470.09480640008</v>
+        <v>57640.08037191872</v>
       </c>
       <c r="C93" t="n">
-        <v>38470.09480640008</v>
+        <v>57640.08037191872</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2580,14 +2580,14 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35807.fa</t>
+          <t>even_MAG-GUT29214.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>36597.17104379924</v>
+        <v>60233.02972242839</v>
       </c>
       <c r="C94" t="n">
-        <v>36597.17104379924</v>
+        <v>60233.02972242839</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2603,14 +2603,14 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36136.fa</t>
+          <t>even_MAG-GUT29221.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100814.7646692195</v>
+        <v>57474.25920824519</v>
       </c>
       <c r="C95" t="n">
-        <v>100814.7646692195</v>
+        <v>57474.25920824519</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2626,14 +2626,14 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36148.fa</t>
+          <t>even_MAG-GUT29476.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>33429.25623287971</v>
+        <v>79737.16849337745</v>
       </c>
       <c r="C96" t="n">
-        <v>33429.25623287971</v>
+        <v>79737.16849337745</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2649,14 +2649,14 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36998.fa</t>
+          <t>even_MAG-GUT29587.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>60944.05787001217</v>
+        <v>35826.46513728703</v>
       </c>
       <c r="C97" t="n">
-        <v>60944.05787001217</v>
+        <v>35826.46513728703</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2672,14 +2672,14 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3710.fa</t>
+          <t>even_MAG-GUT29781.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>74425.71555922208</v>
+        <v>61432.99003866015</v>
       </c>
       <c r="C98" t="n">
-        <v>74425.71555922208</v>
+        <v>61432.99003866015</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2695,14 +2695,14 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37167.fa</t>
+          <t>even_MAG-GUT29856.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>32958.10908800784</v>
+        <v>50172.62772212199</v>
       </c>
       <c r="C99" t="n">
-        <v>32958.10908800784</v>
+        <v>50172.62772212199</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2718,14 +2718,14 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37176.fa</t>
+          <t>even_MAG-GUT29878.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>67558.2389760793</v>
+        <v>10882.10438245372</v>
       </c>
       <c r="C100" t="n">
-        <v>67558.2389760793</v>
+        <v>10882.10438245372</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2741,14 +2741,14 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37279.fa</t>
+          <t>even_MAG-GUT30085.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>59224.06681097111</v>
+        <v>43378.44871272461</v>
       </c>
       <c r="C101" t="n">
-        <v>59224.06681097111</v>
+        <v>43378.44871272461</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2764,14 +2764,14 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37376.fa</t>
+          <t>even_MAG-GUT30091.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>45903.70101862166</v>
+        <v>83116.92306584152</v>
       </c>
       <c r="C102" t="n">
-        <v>45903.70101862166</v>
+        <v>83116.92306584152</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2787,14 +2787,14 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37445.fa</t>
+          <t>even_MAG-GUT30581.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>84227.21487632336</v>
+        <v>63059.76801409532</v>
       </c>
       <c r="C103" t="n">
-        <v>84227.21487632336</v>
+        <v>63059.76801409532</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2810,14 +2810,14 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37689.fa</t>
+          <t>even_MAG-GUT30699.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>61708.26275888325</v>
+        <v>71955.9259330073</v>
       </c>
       <c r="C104" t="n">
-        <v>61708.26275888325</v>
+        <v>71955.9259330073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2833,14 +2833,14 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38016.fa</t>
+          <t>even_MAG-GUT31093.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>14702.52023608212</v>
+        <v>56271.80420426396</v>
       </c>
       <c r="C105" t="n">
-        <v>14702.52023608212</v>
+        <v>56271.80420426396</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38551.fa</t>
+          <t>even_MAG-GUT31302.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>35871.55965657407</v>
+        <v>36090.43341281071</v>
       </c>
       <c r="C106" t="n">
-        <v>35871.55965657407</v>
+        <v>36090.43341281071</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2879,14 +2879,14 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38702.fa</t>
+          <t>even_MAG-GUT31785.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>49851.19949293794</v>
+        <v>43350.41442637955</v>
       </c>
       <c r="C107" t="n">
-        <v>49851.19949293794</v>
+        <v>43350.41442637955</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2902,14 +2902,14 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3880.fa</t>
+          <t>even_MAG-GUT32106.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>46230.57538754946</v>
+        <v>61090.85922821796</v>
       </c>
       <c r="C108" t="n">
-        <v>46230.57538754946</v>
+        <v>61090.85922821796</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2925,14 +2925,14 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42358.fa</t>
+          <t>even_MAG-GUT32691.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>44623.72800100911</v>
+        <v>54966.79315194034</v>
       </c>
       <c r="C109" t="n">
-        <v>44623.72800100911</v>
+        <v>54966.79315194034</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2948,14 +2948,14 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43155.fa</t>
+          <t>even_MAG-GUT33511.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>74363.85494707976</v>
+        <v>42059.26290455041</v>
       </c>
       <c r="C110" t="n">
-        <v>74363.85494707976</v>
+        <v>42059.26290455041</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2971,14 +2971,14 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43216.fa</t>
+          <t>even_MAG-GUT33530.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>90662.44886504555</v>
+        <v>38219.80032029872</v>
       </c>
       <c r="C111" t="n">
-        <v>90662.44886504555</v>
+        <v>38219.80032029872</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2994,14 +2994,14 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43248.fa</t>
+          <t>even_MAG-GUT33604.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>91370.60824937894</v>
+        <v>47377.69803236231</v>
       </c>
       <c r="C112" t="n">
-        <v>91370.60824937894</v>
+        <v>47377.69803236231</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3017,14 +3017,14 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43570.fa</t>
+          <t>even_MAG-GUT33657.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>60746.82215110482</v>
+        <v>47496.70538234689</v>
       </c>
       <c r="C113" t="n">
-        <v>60746.82215110482</v>
+        <v>47496.70538234689</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3040,14 +3040,14 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43698.fa</t>
+          <t>even_MAG-GUT3377.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>74973.04397319465</v>
+        <v>66779.24709785289</v>
       </c>
       <c r="C114" t="n">
-        <v>74973.04397319465</v>
+        <v>66779.24709785289</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3063,14 +3063,14 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44000.fa</t>
+          <t>even_MAG-GUT34206.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100453.7682690342</v>
+        <v>37671.62470782132</v>
       </c>
       <c r="C115" t="n">
-        <v>100453.7682690342</v>
+        <v>37671.62470782132</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3086,14 +3086,14 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44111.fa</t>
+          <t>even_MAG-GUT34421.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>78926.33306605925</v>
+        <v>37623.89361541023</v>
       </c>
       <c r="C116" t="n">
-        <v>78926.33306605925</v>
+        <v>37623.89361541023</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3109,14 +3109,14 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44662.fa</t>
+          <t>even_MAG-GUT34513.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>73142.85775541252</v>
+        <v>42831.96832641996</v>
       </c>
       <c r="C117" t="n">
-        <v>73142.85775541252</v>
+        <v>42831.96832641996</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3132,14 +3132,14 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44736.fa</t>
+          <t>even_MAG-GUT34778.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>42734.76712554008</v>
+        <v>37623.89361541023</v>
       </c>
       <c r="C118" t="n">
-        <v>42734.76712554008</v>
+        <v>37623.89361541023</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3155,14 +3155,14 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44851.fa</t>
+          <t>even_MAG-GUT35231.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>83058.42332202826</v>
+        <v>38470.09480640008</v>
       </c>
       <c r="C119" t="n">
-        <v>83058.42332202826</v>
+        <v>38470.09480640008</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3178,14 +3178,14 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45317.fa</t>
+          <t>even_MAG-GUT35807.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>101477.058855717</v>
+        <v>36597.17104379924</v>
       </c>
       <c r="C120" t="n">
-        <v>101477.058855717</v>
+        <v>36597.17104379924</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3201,14 +3201,14 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45633.fa</t>
+          <t>even_MAG-GUT36136.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>75555.15151018351</v>
+        <v>100814.7646692195</v>
       </c>
       <c r="C121" t="n">
-        <v>75555.15151018351</v>
+        <v>100814.7646692195</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3224,14 +3224,14 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45684.fa</t>
+          <t>even_MAG-GUT36148.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>98853.95095520116</v>
+        <v>33429.25623287971</v>
       </c>
       <c r="C122" t="n">
-        <v>98853.95095520116</v>
+        <v>33429.25623287971</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3247,14 +3247,14 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45719.fa</t>
+          <t>even_MAG-GUT36998.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>76018.89110222003</v>
+        <v>60944.05787001217</v>
       </c>
       <c r="C123" t="n">
-        <v>76018.89110222003</v>
+        <v>60944.05787001217</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3270,14 +3270,14 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45776.fa</t>
+          <t>even_MAG-GUT3710.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>97756.28611587253</v>
+        <v>74425.71555922208</v>
       </c>
       <c r="C124" t="n">
-        <v>97756.28611587253</v>
+        <v>74425.71555922208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46165.fa</t>
+          <t>even_MAG-GUT37167.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>67303.98539208004</v>
+        <v>32958.10908800784</v>
       </c>
       <c r="C125" t="n">
-        <v>67303.98539208004</v>
+        <v>32958.10908800784</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3316,14 +3316,14 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46247.fa</t>
+          <t>even_MAG-GUT37176.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>56243.96111092063</v>
+        <v>67558.2389760793</v>
       </c>
       <c r="C126" t="n">
-        <v>56243.96111092063</v>
+        <v>67558.2389760793</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3339,14 +3339,14 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46435.fa</t>
+          <t>even_MAG-GUT37279.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>82595.25426064778</v>
+        <v>59224.06681097111</v>
       </c>
       <c r="C127" t="n">
-        <v>82595.25426064778</v>
+        <v>59224.06681097111</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3362,14 +3362,14 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46922.fa</t>
+          <t>even_MAG-GUT37376.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>84011.21874303187</v>
+        <v>45903.70101862166</v>
       </c>
       <c r="C128" t="n">
-        <v>84011.21874303187</v>
+        <v>45903.70101862166</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3385,14 +3385,14 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46931.fa</t>
+          <t>even_MAG-GUT37445.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>88300.78103243797</v>
+        <v>84227.21487632336</v>
       </c>
       <c r="C129" t="n">
-        <v>88300.78103243797</v>
+        <v>84227.21487632336</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3408,14 +3408,14 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46987.fa</t>
+          <t>even_MAG-GUT37689.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>58379.89255730891</v>
+        <v>61708.26275888325</v>
       </c>
       <c r="C130" t="n">
-        <v>58379.89255730891</v>
+        <v>61708.26275888325</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3431,14 +3431,14 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47106.fa</t>
+          <t>even_MAG-GUT37976.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>83604.23612605041</v>
+        <v>77848.46521013207</v>
       </c>
       <c r="C131" t="n">
-        <v>83604.23612605041</v>
+        <v>77848.46521013207</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3454,14 +3454,14 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47186.fa</t>
+          <t>even_MAG-GUT38016.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>82315.50628286267</v>
+        <v>14702.52023608212</v>
       </c>
       <c r="C132" t="n">
-        <v>82315.50628286267</v>
+        <v>14702.52023608212</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3477,14 +3477,14 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47222.fa</t>
+          <t>even_MAG-GUT38551.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>84348.78697774287</v>
+        <v>35871.55965657407</v>
       </c>
       <c r="C133" t="n">
-        <v>84348.78697774287</v>
+        <v>35871.55965657407</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3500,14 +3500,14 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47622.fa</t>
+          <t>even_MAG-GUT38702.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>93660.01347050883</v>
+        <v>49851.19949293794</v>
       </c>
       <c r="C134" t="n">
-        <v>93660.01347050883</v>
+        <v>49851.19949293794</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3523,14 +3523,14 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47676.fa</t>
+          <t>even_MAG-GUT3880.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>96150.42837095563</v>
+        <v>46230.57538754946</v>
       </c>
       <c r="C135" t="n">
-        <v>96150.42837095563</v>
+        <v>46230.57538754946</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3546,14 +3546,14 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47840.fa</t>
+          <t>even_MAG-GUT42358.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>51940.32175721283</v>
+        <v>44623.72800100911</v>
       </c>
       <c r="C136" t="n">
-        <v>51940.32175721283</v>
+        <v>44623.72800100911</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3569,14 +3569,14 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47922.fa</t>
+          <t>even_MAG-GUT43152.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>96354.61140878055</v>
+        <v>80936.09758317027</v>
       </c>
       <c r="C137" t="n">
-        <v>96354.61140878055</v>
+        <v>80936.09758317027</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3592,14 +3592,14 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48190.fa</t>
+          <t>even_MAG-GUT43155.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>80573.37428581709</v>
+        <v>74363.85494707976</v>
       </c>
       <c r="C138" t="n">
-        <v>80573.37428581709</v>
+        <v>74363.85494707976</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3615,14 +3615,14 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48247.fa</t>
+          <t>even_MAG-GUT43216.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>97503.48693290768</v>
+        <v>90662.44886504555</v>
       </c>
       <c r="C139" t="n">
-        <v>97503.48693290768</v>
+        <v>90662.44886504555</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3638,14 +3638,14 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48628.fa</t>
+          <t>even_MAG-GUT43233.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>56481.0532325494</v>
+        <v>61061.01984968819</v>
       </c>
       <c r="C140" t="n">
-        <v>56481.0532325494</v>
+        <v>61061.01984968819</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3661,14 +3661,14 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48630.fa</t>
+          <t>even_MAG-GUT43248.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>68972.13937723362</v>
+        <v>91370.60824937894</v>
       </c>
       <c r="C141" t="n">
-        <v>68972.13937723362</v>
+        <v>91370.60824937894</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3684,14 +3684,14 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48634.fa</t>
+          <t>even_MAG-GUT43329.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>75710.76560235384</v>
+        <v>85781.50356925951</v>
       </c>
       <c r="C142" t="n">
-        <v>75710.76560235384</v>
+        <v>85781.50356925951</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3707,14 +3707,14 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48635.fa</t>
+          <t>even_MAG-GUT43570.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>88724.54261331965</v>
+        <v>60746.82215110482</v>
       </c>
       <c r="C143" t="n">
-        <v>88724.54261331965</v>
+        <v>60746.82215110482</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3730,14 +3730,14 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48651.fa</t>
+          <t>even_MAG-GUT43698.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>80091.07592662278</v>
+        <v>74973.04397319465</v>
       </c>
       <c r="C144" t="n">
-        <v>80091.07592662278</v>
+        <v>74973.04397319465</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3753,14 +3753,14 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48654.fa</t>
+          <t>even_MAG-GUT43835.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>75197.44389327509</v>
+        <v>78323.36968926706</v>
       </c>
       <c r="C145" t="n">
-        <v>75197.44389327509</v>
+        <v>78323.36968926706</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3776,14 +3776,14 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48684.fa</t>
+          <t>even_MAG-GUT44000.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>62683.492019497</v>
+        <v>100453.7682690342</v>
       </c>
       <c r="C146" t="n">
-        <v>62683.492019497</v>
+        <v>100453.7682690342</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3799,14 +3799,14 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48694.fa</t>
+          <t>even_MAG-GUT44111.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>62698.01438006716</v>
+        <v>78926.33306605925</v>
       </c>
       <c r="C147" t="n">
-        <v>62698.01438006716</v>
+        <v>78926.33306605925</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3822,14 +3822,14 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48733.fa</t>
+          <t>even_MAG-GUT44662.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>78491.89129415613</v>
+        <v>73142.85775541252</v>
       </c>
       <c r="C148" t="n">
-        <v>78491.89129415613</v>
+        <v>73142.85775541252</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3845,14 +3845,14 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48779.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>57271.51586126989</v>
+        <v>42734.76712554008</v>
       </c>
       <c r="C149" t="n">
-        <v>57271.51586126989</v>
+        <v>42734.76712554008</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3868,14 +3868,14 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48825.fa</t>
+          <t>even_MAG-GUT44851.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>73134.4502974083</v>
+        <v>83058.42332202826</v>
       </c>
       <c r="C150" t="n">
-        <v>73134.4502974083</v>
+        <v>83058.42332202826</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3891,14 +3891,14 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48863.fa</t>
+          <t>even_MAG-GUT45317.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>82097.33867202843</v>
+        <v>101477.058855717</v>
       </c>
       <c r="C151" t="n">
-        <v>82097.33867202843</v>
+        <v>101477.058855717</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3914,14 +3914,14 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48902.fa</t>
+          <t>even_MAG-GUT45633.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50715.47282243344</v>
+        <v>75555.15151018351</v>
       </c>
       <c r="C152" t="n">
-        <v>50715.47282243344</v>
+        <v>75555.15151018351</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3937,14 +3937,14 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48923.fa</t>
+          <t>even_MAG-GUT45684.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>86752.6453861975</v>
+        <v>98853.95095520116</v>
       </c>
       <c r="C153" t="n">
-        <v>86752.6453861975</v>
+        <v>98853.95095520116</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3960,14 +3960,14 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48943.fa</t>
+          <t>even_MAG-GUT45719.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>84014.77025959964</v>
+        <v>76018.89110222003</v>
       </c>
       <c r="C154" t="n">
-        <v>84014.77025959964</v>
+        <v>76018.89110222003</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3983,14 +3983,14 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48957.fa</t>
+          <t>even_MAG-GUT45776.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>92685.51270365164</v>
+        <v>97756.28611587253</v>
       </c>
       <c r="C155" t="n">
-        <v>92685.51270365164</v>
+        <v>97756.28611587253</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4006,14 +4006,14 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48959.fa</t>
+          <t>even_MAG-GUT45903.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>67566.10564717322</v>
+        <v>85852.71754423912</v>
       </c>
       <c r="C156" t="n">
-        <v>67566.10564717322</v>
+        <v>85852.71754423912</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4029,14 +4029,14 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48964.fa</t>
+          <t>even_MAG-GUT46165.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>80900.22013672891</v>
+        <v>67303.98539208004</v>
       </c>
       <c r="C157" t="n">
-        <v>80900.22013672891</v>
+        <v>67303.98539208004</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4052,14 +4052,14 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48986.fa</t>
+          <t>even_MAG-GUT46247.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>68359.67351302688</v>
+        <v>56243.96111092063</v>
       </c>
       <c r="C158" t="n">
-        <v>68359.67351302688</v>
+        <v>56243.96111092063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4075,14 +4075,14 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49003.fa</t>
+          <t>even_MAG-GUT46435.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>68636.27797203492</v>
+        <v>82595.25426064778</v>
       </c>
       <c r="C159" t="n">
-        <v>68636.27797203492</v>
+        <v>82595.25426064778</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4098,14 +4098,14 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49011.fa</t>
+          <t>even_MAG-GUT46922.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>69419.19179715222</v>
+        <v>84011.21874303187</v>
       </c>
       <c r="C160" t="n">
-        <v>69419.19179715222</v>
+        <v>84011.21874303187</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4121,14 +4121,14 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49026.fa</t>
+          <t>even_MAG-GUT46931.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>85841.87355685495</v>
+        <v>88300.78103243797</v>
       </c>
       <c r="C161" t="n">
-        <v>85841.87355685495</v>
+        <v>88300.78103243797</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4144,14 +4144,14 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49035.fa</t>
+          <t>even_MAG-GUT46987.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>58487.22983271978</v>
+        <v>58379.89255730891</v>
       </c>
       <c r="C162" t="n">
-        <v>58487.22983271978</v>
+        <v>58379.89255730891</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4167,14 +4167,14 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49036.fa</t>
+          <t>even_MAG-GUT47106.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>86891.58764880071</v>
+        <v>83604.23612605041</v>
       </c>
       <c r="C163" t="n">
-        <v>86891.58764880071</v>
+        <v>83604.23612605041</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4190,14 +4190,14 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49203.fa</t>
+          <t>even_MAG-GUT47186.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>60298.27980648805</v>
+        <v>82315.50628286267</v>
       </c>
       <c r="C164" t="n">
-        <v>60298.27980648805</v>
+        <v>82315.50628286267</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4213,14 +4213,14 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49266.fa</t>
+          <t>even_MAG-GUT47222.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>74801.85476640311</v>
+        <v>84348.78697774287</v>
       </c>
       <c r="C165" t="n">
-        <v>74801.85476640311</v>
+        <v>84348.78697774287</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4236,14 +4236,14 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49294.fa</t>
+          <t>even_MAG-GUT47622.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>92410.11922829467</v>
+        <v>93660.01347050883</v>
       </c>
       <c r="C166" t="n">
-        <v>92410.11922829467</v>
+        <v>93660.01347050883</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4259,14 +4259,14 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49309.fa</t>
+          <t>even_MAG-GUT47676.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>63619.55408401939</v>
+        <v>96150.42837095563</v>
       </c>
       <c r="C167" t="n">
-        <v>63619.55408401939</v>
+        <v>96150.42837095563</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4282,14 +4282,14 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49328.fa</t>
+          <t>even_MAG-GUT47840.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>71328.53617678295</v>
+        <v>51940.32175721283</v>
       </c>
       <c r="C168" t="n">
-        <v>71328.53617678295</v>
+        <v>51940.32175721283</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4305,14 +4305,14 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49355.fa</t>
+          <t>even_MAG-GUT47875.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>91695.30672784008</v>
+        <v>78471.06178270614</v>
       </c>
       <c r="C169" t="n">
-        <v>91695.30672784008</v>
+        <v>78471.06178270614</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4328,14 +4328,14 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49371.fa</t>
+          <t>even_MAG-GUT47922.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>72851.84842282154</v>
+        <v>96354.61140878055</v>
       </c>
       <c r="C170" t="n">
-        <v>72851.84842282154</v>
+        <v>96354.61140878055</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4351,14 +4351,14 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49399.fa</t>
+          <t>even_MAG-GUT48190.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>75093.47635690482</v>
+        <v>80573.37428581709</v>
       </c>
       <c r="C171" t="n">
-        <v>75093.47635690482</v>
+        <v>80573.37428581709</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4374,14 +4374,14 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49414.fa</t>
+          <t>even_MAG-GUT48247.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>63687.87366028968</v>
+        <v>97503.48693290768</v>
       </c>
       <c r="C172" t="n">
-        <v>63687.87366028968</v>
+        <v>97503.48693290768</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4397,14 +4397,14 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49474.fa</t>
+          <t>even_MAG-GUT48628.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>74240.02135186733</v>
+        <v>56481.0532325494</v>
       </c>
       <c r="C173" t="n">
-        <v>74240.02135186733</v>
+        <v>56481.0532325494</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4420,14 +4420,14 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49516.fa</t>
+          <t>even_MAG-GUT48630.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>61903.98473471832</v>
+        <v>68972.13937723362</v>
       </c>
       <c r="C174" t="n">
-        <v>61903.98473471832</v>
+        <v>68972.13937723362</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4443,14 +4443,14 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49534.fa</t>
+          <t>even_MAG-GUT48634.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>92425.98279828779</v>
+        <v>75710.76560235384</v>
       </c>
       <c r="C175" t="n">
-        <v>92425.98279828779</v>
+        <v>75710.76560235384</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49545.fa</t>
+          <t>even_MAG-GUT48635.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>75370.08877187701</v>
+        <v>88724.54261331965</v>
       </c>
       <c r="C176" t="n">
-        <v>75370.08877187701</v>
+        <v>88724.54261331965</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4489,14 +4489,14 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49558.fa</t>
+          <t>even_MAG-GUT48651.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>91444.9501756293</v>
+        <v>80091.07592662278</v>
       </c>
       <c r="C177" t="n">
-        <v>91444.9501756293</v>
+        <v>80091.07592662278</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4512,14 +4512,14 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49568.fa</t>
+          <t>even_MAG-GUT48654.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>69068.93297370008</v>
+        <v>75197.44389327509</v>
       </c>
       <c r="C178" t="n">
-        <v>69068.93297370008</v>
+        <v>75197.44389327509</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4535,14 +4535,14 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49571.fa</t>
+          <t>even_MAG-GUT48684.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>87782.1808336652</v>
+        <v>62683.492019497</v>
       </c>
       <c r="C179" t="n">
-        <v>87782.1808336652</v>
+        <v>62683.492019497</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4558,14 +4558,14 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49576.fa</t>
+          <t>even_MAG-GUT48694.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>72626.21951267967</v>
+        <v>62698.01438006716</v>
       </c>
       <c r="C180" t="n">
-        <v>72626.21951267967</v>
+        <v>62698.01438006716</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4581,14 +4581,14 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49583.fa</t>
+          <t>even_MAG-GUT48733.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>75945.69246888808</v>
+        <v>78491.89129415613</v>
       </c>
       <c r="C181" t="n">
-        <v>75945.69246888808</v>
+        <v>78491.89129415613</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4604,14 +4604,14 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49589.fa</t>
+          <t>even_MAG-GUT48779.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>76768.98746967458</v>
+        <v>57271.51586126989</v>
       </c>
       <c r="C182" t="n">
-        <v>76768.98746967458</v>
+        <v>57271.51586126989</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4627,14 +4627,14 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49596.fa</t>
+          <t>even_MAG-GUT48825.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>58084.79930462173</v>
+        <v>73134.4502974083</v>
       </c>
       <c r="C183" t="n">
-        <v>58084.79930462173</v>
+        <v>73134.4502974083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4650,14 +4650,14 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49597.fa</t>
+          <t>even_MAG-GUT48863.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>56256.22507001583</v>
+        <v>82097.33867202843</v>
       </c>
       <c r="C184" t="n">
-        <v>56256.22507001583</v>
+        <v>82097.33867202843</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4673,14 +4673,14 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49604.fa</t>
+          <t>even_MAG-GUT48902.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>77182.86613691847</v>
+        <v>50715.47282243344</v>
       </c>
       <c r="C185" t="n">
-        <v>77182.86613691847</v>
+        <v>50715.47282243344</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4696,14 +4696,14 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5004.fa</t>
+          <t>even_MAG-GUT48923.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>88052.55941787412</v>
+        <v>86752.6453861975</v>
       </c>
       <c r="C186" t="n">
-        <v>88052.55941787412</v>
+        <v>86752.6453861975</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4719,14 +4719,14 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51748.fa</t>
+          <t>even_MAG-GUT48943.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>31360.55853160817</v>
+        <v>84014.77025959964</v>
       </c>
       <c r="C187" t="n">
-        <v>31360.55853160817</v>
+        <v>84014.77025959964</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4742,14 +4742,14 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51766.fa</t>
+          <t>even_MAG-GUT48949.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>32777.61310496918</v>
+        <v>84707.08716861511</v>
       </c>
       <c r="C188" t="n">
-        <v>32777.61310496918</v>
+        <v>84707.08716861511</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4765,14 +4765,14 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51926.fa</t>
+          <t>even_MAG-GUT48957.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>98043.50987059495</v>
+        <v>92685.51270365164</v>
       </c>
       <c r="C189" t="n">
-        <v>98043.50987059495</v>
+        <v>92685.51270365164</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4788,14 +4788,14 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5199.fa</t>
+          <t>even_MAG-GUT48959.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>83523.41332685042</v>
+        <v>67566.10564717322</v>
       </c>
       <c r="C190" t="n">
-        <v>83523.41332685042</v>
+        <v>67566.10564717322</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4811,14 +4811,14 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55383.fa</t>
+          <t>even_MAG-GUT48964.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>30558.07531331285</v>
+        <v>80900.22013672891</v>
       </c>
       <c r="C191" t="n">
-        <v>30558.07531331285</v>
+        <v>80900.22013672891</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4834,14 +4834,14 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56570.fa</t>
+          <t>even_MAG-GUT48986.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>61380.076573422</v>
+        <v>68359.67351302688</v>
       </c>
       <c r="C192" t="n">
-        <v>61380.076573422</v>
+        <v>68359.67351302688</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4857,14 +4857,14 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5676.fa</t>
+          <t>even_MAG-GUT49003.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>57456.3463720627</v>
+        <v>68636.27797203492</v>
       </c>
       <c r="C193" t="n">
-        <v>57456.3463720627</v>
+        <v>68636.27797203492</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4880,14 +4880,14 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5687.fa</t>
+          <t>even_MAG-GUT49011.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>85444.84281657364</v>
+        <v>69419.19179715222</v>
       </c>
       <c r="C194" t="n">
-        <v>85444.84281657364</v>
+        <v>69419.19179715222</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4903,14 +4903,14 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57069.fa</t>
+          <t>even_MAG-GUT49026.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>74491.3281144248</v>
+        <v>85841.87355685495</v>
       </c>
       <c r="C195" t="n">
-        <v>74491.3281144248</v>
+        <v>85841.87355685495</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4926,14 +4926,14 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57726.fa</t>
+          <t>even_MAG-GUT49035.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>17912.02335052405</v>
+        <v>58487.22983271978</v>
       </c>
       <c r="C196" t="n">
-        <v>17912.02335052405</v>
+        <v>58487.22983271978</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4949,14 +4949,14 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57765.fa</t>
+          <t>even_MAG-GUT49036.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>37766.63410928757</v>
+        <v>86891.58764880071</v>
       </c>
       <c r="C197" t="n">
-        <v>37766.63410928757</v>
+        <v>86891.58764880071</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4972,14 +4972,14 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59593.fa</t>
+          <t>even_MAG-GUT49203.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>48205.46924371932</v>
+        <v>60298.27980648805</v>
       </c>
       <c r="C198" t="n">
-        <v>48205.46924371932</v>
+        <v>60298.27980648805</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4995,14 +4995,14 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60756.fa</t>
+          <t>even_MAG-GUT49266.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>55442.62096128214</v>
+        <v>74801.85476640311</v>
       </c>
       <c r="C199" t="n">
-        <v>55442.62096128214</v>
+        <v>74801.85476640311</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5018,14 +5018,14 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61634.fa</t>
+          <t>even_MAG-GUT49294.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>83279.18601125343</v>
+        <v>92410.11922829467</v>
       </c>
       <c r="C200" t="n">
-        <v>83279.18601125343</v>
+        <v>92410.11922829467</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5041,14 +5041,14 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61708.fa</t>
+          <t>even_MAG-GUT49309.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>36092.27290573831</v>
+        <v>63619.55408401939</v>
       </c>
       <c r="C201" t="n">
-        <v>36092.27290573831</v>
+        <v>63619.55408401939</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5064,14 +5064,14 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61749.fa</t>
+          <t>even_MAG-GUT49328.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>37246.97177988449</v>
+        <v>71328.53617678295</v>
       </c>
       <c r="C202" t="n">
-        <v>37246.97177988449</v>
+        <v>71328.53617678295</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5087,14 +5087,14 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62119.fa</t>
+          <t>even_MAG-GUT49355.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>49820.23221354942</v>
+        <v>91695.30672784008</v>
       </c>
       <c r="C203" t="n">
-        <v>49820.23221354942</v>
+        <v>91695.30672784008</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5110,14 +5110,14 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62393.fa</t>
+          <t>even_MAG-GUT49371.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>37282.91558632556</v>
+        <v>72851.84842282154</v>
       </c>
       <c r="C204" t="n">
-        <v>37282.91558632556</v>
+        <v>72851.84842282154</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5133,14 +5133,14 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64345.fa</t>
+          <t>even_MAG-GUT49399.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>76807.96724486964</v>
+        <v>75093.47635690482</v>
       </c>
       <c r="C205" t="n">
-        <v>76807.96724486964</v>
+        <v>75093.47635690482</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5156,14 +5156,14 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64513.fa</t>
+          <t>even_MAG-GUT49414.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>76807.96724486964</v>
+        <v>63687.87366028968</v>
       </c>
       <c r="C206" t="n">
-        <v>76807.96724486964</v>
+        <v>63687.87366028968</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5179,14 +5179,14 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66953.fa</t>
+          <t>even_MAG-GUT49474.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>64536.6001615019</v>
+        <v>74240.02135186733</v>
       </c>
       <c r="C207" t="n">
-        <v>64536.6001615019</v>
+        <v>74240.02135186733</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5202,14 +5202,14 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67253.fa</t>
+          <t>even_MAG-GUT49516.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>73039.17397821844</v>
+        <v>61903.98473471832</v>
       </c>
       <c r="C208" t="n">
-        <v>73039.17397821844</v>
+        <v>61903.98473471832</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5225,14 +5225,14 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67256.fa</t>
+          <t>even_MAG-GUT49534.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>92827.97170394195</v>
+        <v>92425.98279828779</v>
       </c>
       <c r="C209" t="n">
-        <v>92827.97170394195</v>
+        <v>92425.98279828779</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5248,14 +5248,14 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67799.fa</t>
+          <t>even_MAG-GUT49545.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>63829.11642264511</v>
+        <v>75370.08877187701</v>
       </c>
       <c r="C210" t="n">
-        <v>63829.11642264511</v>
+        <v>75370.08877187701</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5271,14 +5271,14 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68086.fa</t>
+          <t>even_MAG-GUT49558.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>56941.8506369285</v>
+        <v>91444.9501756293</v>
       </c>
       <c r="C211" t="n">
-        <v>56941.8506369285</v>
+        <v>91444.9501756293</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5294,14 +5294,14 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68216.fa</t>
+          <t>even_MAG-GUT49568.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>65418.04146956159</v>
+        <v>69068.93297370008</v>
       </c>
       <c r="C212" t="n">
-        <v>65418.04146956159</v>
+        <v>69068.93297370008</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5317,14 +5317,14 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68260.fa</t>
+          <t>even_MAG-GUT49571.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>48224.63881740821</v>
+        <v>87782.1808336652</v>
       </c>
       <c r="C213" t="n">
-        <v>48224.63881740821</v>
+        <v>87782.1808336652</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5340,14 +5340,14 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68570.fa</t>
+          <t>even_MAG-GUT49576.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>70806.7540936986</v>
+        <v>72626.21951267967</v>
       </c>
       <c r="C214" t="n">
-        <v>70806.7540936986</v>
+        <v>72626.21951267967</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5363,14 +5363,14 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68726.fa</t>
+          <t>even_MAG-GUT49583.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>73857.27040068047</v>
+        <v>75945.69246888808</v>
       </c>
       <c r="C215" t="n">
-        <v>73857.27040068047</v>
+        <v>75945.69246888808</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5386,14 +5386,14 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68810.fa</t>
+          <t>even_MAG-GUT49589.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>87885.64290855397</v>
+        <v>76768.98746967458</v>
       </c>
       <c r="C216" t="n">
-        <v>87885.64290855397</v>
+        <v>76768.98746967458</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5409,14 +5409,14 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68872.fa</t>
+          <t>even_MAG-GUT49596.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>63778.92374635371</v>
+        <v>58084.79930462173</v>
       </c>
       <c r="C217" t="n">
-        <v>63778.92374635371</v>
+        <v>58084.79930462173</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5432,14 +5432,14 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69096.fa</t>
+          <t>even_MAG-GUT49597.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>80361.65073422798</v>
+        <v>56256.22507001583</v>
       </c>
       <c r="C218" t="n">
-        <v>80361.65073422798</v>
+        <v>56256.22507001583</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5455,14 +5455,14 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69113.fa</t>
+          <t>even_MAG-GUT49604.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>54322.39050200149</v>
+        <v>77182.86613691847</v>
       </c>
       <c r="C219" t="n">
-        <v>54322.39050200149</v>
+        <v>77182.86613691847</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5478,14 +5478,14 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69123.fa</t>
+          <t>even_MAG-GUT5004.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>77018.82670003615</v>
+        <v>88052.55941787412</v>
       </c>
       <c r="C220" t="n">
-        <v>77018.82670003615</v>
+        <v>88052.55941787412</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5501,14 +5501,14 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69144.fa</t>
+          <t>even_MAG-GUT51748.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>68205.26330163037</v>
+        <v>31360.55853160817</v>
       </c>
       <c r="C221" t="n">
-        <v>68205.26330163037</v>
+        <v>31360.55853160817</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5524,14 +5524,14 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69198.fa</t>
+          <t>even_MAG-GUT51766.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>61538.78096694899</v>
+        <v>32777.61310496918</v>
       </c>
       <c r="C222" t="n">
-        <v>61538.78096694899</v>
+        <v>32777.61310496918</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5547,14 +5547,14 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69367.fa</t>
+          <t>even_MAG-GUT51926.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>61889.26221769878</v>
+        <v>98043.50987059495</v>
       </c>
       <c r="C223" t="n">
-        <v>61889.26221769878</v>
+        <v>98043.50987059495</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5570,14 +5570,14 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69378.fa</t>
+          <t>even_MAG-GUT51928.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>69310.84868817565</v>
+        <v>83134.72912158798</v>
       </c>
       <c r="C224" t="n">
-        <v>69310.84868817565</v>
+        <v>83134.72912158798</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5593,14 +5593,14 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69417.fa</t>
+          <t>even_MAG-GUT5199.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>70307.80873693957</v>
+        <v>83523.41332685042</v>
       </c>
       <c r="C225" t="n">
-        <v>70307.80873693957</v>
+        <v>83523.41332685042</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5616,14 +5616,14 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69483.fa</t>
+          <t>even_MAG-GUT5341.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>78391.63518963862</v>
+        <v>55340.18988542257</v>
       </c>
       <c r="C226" t="n">
-        <v>78391.63518963862</v>
+        <v>55340.18988542257</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5639,14 +5639,14 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69551.fa</t>
+          <t>even_MAG-GUT54583.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>91157.7458748643</v>
+        <v>82042.39785653769</v>
       </c>
       <c r="C227" t="n">
-        <v>91157.7458748643</v>
+        <v>82042.39785653769</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5662,14 +5662,14 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7088.fa</t>
+          <t>even_MAG-GUT55383.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>101967.0230207288</v>
+        <v>30558.07531331285</v>
       </c>
       <c r="C228" t="n">
-        <v>101967.0230207288</v>
+        <v>30558.07531331285</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5685,14 +5685,14 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7095.fa</t>
+          <t>even_MAG-GUT56559.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>89890.57619601386</v>
+        <v>69778.22262250957</v>
       </c>
       <c r="C229" t="n">
-        <v>89890.57619601386</v>
+        <v>69778.22262250957</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5708,14 +5708,14 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7099.fa</t>
+          <t>even_MAG-GUT56570.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>81810.96689423147</v>
+        <v>61380.076573422</v>
       </c>
       <c r="C230" t="n">
-        <v>81810.96689423147</v>
+        <v>61380.076573422</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5731,14 +5731,14 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7105.fa</t>
+          <t>even_MAG-GUT56604.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>95928.29702649511</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="C231" t="n">
-        <v>95928.29702649511</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5754,14 +5754,14 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7112.fa</t>
+          <t>even_MAG-GUT5676.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>81810.96689423147</v>
+        <v>57456.3463720627</v>
       </c>
       <c r="C232" t="n">
-        <v>81810.96689423147</v>
+        <v>57456.3463720627</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5777,14 +5777,14 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7120.fa</t>
+          <t>even_MAG-GUT5687.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>83153.65040353288</v>
+        <v>85444.84281657364</v>
       </c>
       <c r="C233" t="n">
-        <v>83153.65040353288</v>
+        <v>85444.84281657364</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5800,14 +5800,14 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7132.fa</t>
+          <t>even_MAG-GUT57066.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>93276.76740304452</v>
+        <v>67494.60996822703</v>
       </c>
       <c r="C234" t="n">
-        <v>93276.76740304452</v>
+        <v>67494.60996822703</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5823,14 +5823,14 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7155.fa</t>
+          <t>even_MAG-GUT57069.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>82435.06599727555</v>
+        <v>74491.3281144248</v>
       </c>
       <c r="C235" t="n">
-        <v>82435.06599727555</v>
+        <v>74491.3281144248</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5846,14 +5846,14 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7161.fa</t>
+          <t>even_MAG-GUT57190.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>83751.79787185788</v>
+        <v>53298.86581526427</v>
       </c>
       <c r="C236" t="n">
-        <v>83751.79787185788</v>
+        <v>53298.86581526427</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5869,14 +5869,14 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7166.fa</t>
+          <t>even_MAG-GUT57346.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>77795.8304212901</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="C237" t="n">
-        <v>77795.8304212901</v>
+        <v>56548.23275339618</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5892,14 +5892,14 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7197.fa</t>
+          <t>even_MAG-GUT57398.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>93061.39301160024</v>
+        <v>60645.84139237207</v>
       </c>
       <c r="C238" t="n">
-        <v>93061.39301160024</v>
+        <v>60645.84139237207</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5915,14 +5915,14 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7210.fa</t>
+          <t>even_MAG-GUT57498.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>76281.00386827471</v>
+        <v>64680.51341980396</v>
       </c>
       <c r="C239" t="n">
-        <v>76281.00386827471</v>
+        <v>64680.51341980396</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5938,14 +5938,14 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7229.fa</t>
+          <t>even_MAG-GUT57542.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>91197.87479266569</v>
+        <v>73646.52118639406</v>
       </c>
       <c r="C240" t="n">
-        <v>91197.87479266569</v>
+        <v>73646.52118639406</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5961,14 +5961,14 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7247.fa</t>
+          <t>even_MAG-GUT57592.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>73739.42994370403</v>
+        <v>62810.55768102589</v>
       </c>
       <c r="C241" t="n">
-        <v>73739.42994370403</v>
+        <v>62810.55768102589</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5984,14 +5984,14 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80385.fa</t>
+          <t>even_MAG-GUT57726.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>39058.07664379958</v>
+        <v>17912.02335052405</v>
       </c>
       <c r="C242" t="n">
-        <v>39058.07664379958</v>
+        <v>17912.02335052405</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6007,14 +6007,14 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80453.fa</t>
+          <t>even_MAG-GUT57765.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>84273.76226096605</v>
+        <v>37766.63410928757</v>
       </c>
       <c r="C243" t="n">
-        <v>84273.76226096605</v>
+        <v>37766.63410928757</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6030,14 +6030,14 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80771.fa</t>
+          <t>even_MAG-GUT57771.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>77624.32220483111</v>
+        <v>59249.93039852873</v>
       </c>
       <c r="C244" t="n">
-        <v>77624.32220483111</v>
+        <v>59249.93039852873</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6053,14 +6053,14 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81523.fa</t>
+          <t>even_MAG-GUT57988.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>15191.19651391051</v>
+        <v>68585.10732295307</v>
       </c>
       <c r="C245" t="n">
-        <v>15191.19651391051</v>
+        <v>68585.10732295307</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6076,14 +6076,14 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81946.fa</t>
+          <t>even_MAG-GUT58133.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>80882.37562577522</v>
+        <v>78567.18408145974</v>
       </c>
       <c r="C246" t="n">
-        <v>80882.37562577522</v>
+        <v>78567.18408145974</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6099,14 +6099,14 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85904.fa</t>
+          <t>even_MAG-GUT58310.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>26775.24495553064</v>
+        <v>69734.89435390355</v>
       </c>
       <c r="C247" t="n">
-        <v>26775.24495553064</v>
+        <v>69734.89435390355</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6122,14 +6122,14 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85919.fa</t>
+          <t>even_MAG-GUT58672.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>26787.39225793381</v>
+        <v>87316.17211274244</v>
       </c>
       <c r="C248" t="n">
-        <v>26787.39225793381</v>
+        <v>87316.17211274244</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6145,14 +6145,14 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86853.fa</t>
+          <t>even_MAG-GUT59502.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>54772.95826141443</v>
+        <v>62937.35139394297</v>
       </c>
       <c r="C249" t="n">
-        <v>54772.95826141443</v>
+        <v>62937.35139394297</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6168,14 +6168,14 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86935.fa</t>
+          <t>even_MAG-GUT59576.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>44682.25546545726</v>
+        <v>64523.21415077081</v>
       </c>
       <c r="C250" t="n">
-        <v>44682.25546545726</v>
+        <v>64523.21415077081</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6191,14 +6191,14 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87208.fa</t>
+          <t>even_MAG-GUT5959.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>59526.88517934641</v>
+        <v>87455.49644818905</v>
       </c>
       <c r="C251" t="n">
-        <v>59526.88517934641</v>
+        <v>87455.49644818905</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6214,14 +6214,14 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87297.fa</t>
+          <t>even_MAG-GUT59593.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>45372.97141847962</v>
+        <v>48205.46924371932</v>
       </c>
       <c r="C252" t="n">
-        <v>45372.97141847962</v>
+        <v>48205.46924371932</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6237,14 +6237,14 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87358.fa</t>
+          <t>even_MAG-GUT59626.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>52197.20879535582</v>
+        <v>69778.22262250957</v>
       </c>
       <c r="C253" t="n">
-        <v>52197.20879535582</v>
+        <v>69778.22262250957</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6260,14 +6260,14 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87793.fa</t>
+          <t>even_MAG-GUT60077.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>39532.07932743276</v>
+        <v>55914.28473328256</v>
       </c>
       <c r="C254" t="n">
-        <v>39532.07932743276</v>
+        <v>55914.28473328256</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6283,14 +6283,14 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87821.fa</t>
+          <t>even_MAG-GUT60123.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>78282.93604239151</v>
+        <v>73425.90190476312</v>
       </c>
       <c r="C255" t="n">
-        <v>78282.93604239151</v>
+        <v>73425.90190476312</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6306,14 +6306,14 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87873.fa</t>
+          <t>even_MAG-GUT60157.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>83243.32620619795</v>
+        <v>57504.73730955311</v>
       </c>
       <c r="C256" t="n">
-        <v>83243.32620619795</v>
+        <v>57504.73730955311</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6329,14 +6329,14 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88255.fa</t>
+          <t>even_MAG-GUT60320.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>52351.02671326195</v>
+        <v>84561.52044544363</v>
       </c>
       <c r="C257" t="n">
-        <v>52351.02671326195</v>
+        <v>84561.52044544363</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6352,14 +6352,14 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88263.fa</t>
+          <t>even_MAG-GUT60370.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>50224.71577492116</v>
+        <v>71079.12486330842</v>
       </c>
       <c r="C258" t="n">
-        <v>50224.71577492116</v>
+        <v>71079.12486330842</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6375,14 +6375,14 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88291.fa</t>
+          <t>even_MAG-GUT60466.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>58957.01196911698</v>
+        <v>93566.43854315243</v>
       </c>
       <c r="C259" t="n">
-        <v>58957.01196911698</v>
+        <v>93566.43854315243</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6398,14 +6398,14 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88563.fa</t>
+          <t>even_MAG-GUT60605.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>53470.06956381872</v>
+        <v>78556.93923843764</v>
       </c>
       <c r="C260" t="n">
-        <v>53470.06956381872</v>
+        <v>78556.93923843764</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6421,14 +6421,14 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88626.fa</t>
+          <t>even_MAG-GUT60756.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>39964.69422058511</v>
+        <v>55442.62096128214</v>
       </c>
       <c r="C261" t="n">
-        <v>39964.69422058511</v>
+        <v>55442.62096128214</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6444,14 +6444,14 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88854.fa</t>
+          <t>even_MAG-GUT60882.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>42444.53666109921</v>
+        <v>83985.26018297108</v>
       </c>
       <c r="C262" t="n">
-        <v>42444.53666109921</v>
+        <v>83985.26018297108</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6467,14 +6467,14 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88891.fa</t>
+          <t>even_MAG-GUT60999.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>40433.33631884564</v>
+        <v>73395.28861845254</v>
       </c>
       <c r="C263" t="n">
-        <v>40433.33631884564</v>
+        <v>73395.28861845254</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -6490,14 +6490,14 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89009.fa</t>
+          <t>even_MAG-GUT61376.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>47042.25273655781</v>
+        <v>79850.64258326008</v>
       </c>
       <c r="C264" t="n">
-        <v>47042.25273655781</v>
+        <v>79850.64258326008</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -6513,14 +6513,14 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89205.fa</t>
+          <t>even_MAG-GUT61623.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>82792.60931118943</v>
+        <v>55415.11327548497</v>
       </c>
       <c r="C265" t="n">
-        <v>82792.60931118943</v>
+        <v>55415.11327548497</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -6536,14 +6536,14 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89291.fa</t>
+          <t>even_MAG-GUT61634.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>92883.98599631902</v>
+        <v>83279.18601125343</v>
       </c>
       <c r="C266" t="n">
-        <v>92883.98599631902</v>
+        <v>83279.18601125343</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -6559,14 +6559,14 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89318.fa</t>
+          <t>even_MAG-GUT61658.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>85824.70437646414</v>
+        <v>52785.87058793177</v>
       </c>
       <c r="C267" t="n">
-        <v>85824.70437646414</v>
+        <v>52785.87058793177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -6582,14 +6582,14 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89323.fa</t>
+          <t>even_MAG-GUT61708.fa</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>35619.77739392121</v>
+        <v>36092.27290573831</v>
       </c>
       <c r="C268" t="n">
-        <v>35619.77739392121</v>
+        <v>36092.27290573831</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6605,14 +6605,14 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89356.fa</t>
+          <t>even_MAG-GUT61749.fa</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>85824.70437646414</v>
+        <v>37246.97177988449</v>
       </c>
       <c r="C269" t="n">
-        <v>85824.70437646414</v>
+        <v>37246.97177988449</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -6628,14 +6628,14 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89364.fa</t>
+          <t>even_MAG-GUT61937.fa</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>79896.80811769197</v>
+        <v>75161.11691307447</v>
       </c>
       <c r="C270" t="n">
-        <v>79896.80811769197</v>
+        <v>75161.11691307447</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -6651,14 +6651,14 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89717.fa</t>
+          <t>even_MAG-GUT62054.fa</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>78338.39428028517</v>
+        <v>77562.40412805985</v>
       </c>
       <c r="C271" t="n">
-        <v>78338.39428028517</v>
+        <v>77562.40412805985</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6674,14 +6674,14 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90076.fa</t>
+          <t>even_MAG-GUT62117.fa</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>91497.36089189586</v>
+        <v>66482.72461704335</v>
       </c>
       <c r="C272" t="n">
-        <v>91497.36089189586</v>
+        <v>66482.72461704335</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -6697,14 +6697,14 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90108.fa</t>
+          <t>even_MAG-GUT62119.fa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>82284.56851013508</v>
+        <v>49820.23221354942</v>
       </c>
       <c r="C273" t="n">
-        <v>82284.56851013508</v>
+        <v>49820.23221354942</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -6720,14 +6720,14 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90168.fa</t>
+          <t>even_MAG-GUT62393.fa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>83942.59179733276</v>
+        <v>37282.91558632556</v>
       </c>
       <c r="C274" t="n">
-        <v>83942.59179733276</v>
+        <v>37282.91558632556</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6743,14 +6743,14 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90190.fa</t>
+          <t>even_MAG-GUT62444.fa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>82792.60931118943</v>
+        <v>56706.05815120689</v>
       </c>
       <c r="C275" t="n">
-        <v>82792.60931118943</v>
+        <v>56706.05815120689</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -6766,14 +6766,14 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90292.fa</t>
+          <t>even_MAG-GUT62509.fa</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>96362.85159920862</v>
+        <v>74488.29655530379</v>
       </c>
       <c r="C276" t="n">
-        <v>96362.85159920862</v>
+        <v>74488.29655530379</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -6789,14 +6789,14 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90367.fa</t>
+          <t>even_MAG-GUT62666.fa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>83991.97396420337</v>
+        <v>80956.9331806025</v>
       </c>
       <c r="C277" t="n">
-        <v>83991.97396420337</v>
+        <v>80956.9331806025</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -6812,14 +6812,14 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90600.fa</t>
+          <t>even_MAG-GUT64345.fa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>60757.48014228143</v>
+        <v>76807.96724486964</v>
       </c>
       <c r="C278" t="n">
-        <v>60757.48014228143</v>
+        <v>76807.96724486964</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6835,14 +6835,14 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90634.fa</t>
+          <t>even_MAG-GUT64513.fa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>76491.30288642002</v>
+        <v>76807.96724486964</v>
       </c>
       <c r="C279" t="n">
-        <v>76491.30288642002</v>
+        <v>76807.96724486964</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6858,14 +6858,14 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90947.fa</t>
+          <t>even_MAG-GUT66378.fa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>85824.70437646414</v>
+        <v>37153.98153200863</v>
       </c>
       <c r="C280" t="n">
-        <v>85824.70437646414</v>
+        <v>37153.98153200863</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6881,14 +6881,14 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90977.fa</t>
+          <t>even_MAG-GUT66382.fa</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>85824.70437646414</v>
+        <v>47927.03435235638</v>
       </c>
       <c r="C281" t="n">
-        <v>85824.70437646414</v>
+        <v>47927.03435235638</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6904,14 +6904,14 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91033.fa</t>
+          <t>even_MAG-GUT6679.fa</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>90698.77918776635</v>
+        <v>58020.28747094852</v>
       </c>
       <c r="C282" t="n">
-        <v>90698.77918776635</v>
+        <v>58020.28747094852</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6927,14 +6927,14 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91117.fa</t>
+          <t>even_MAG-GUT66953.fa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>85824.70437646414</v>
+        <v>64536.6001615019</v>
       </c>
       <c r="C283" t="n">
-        <v>85824.70437646414</v>
+        <v>64536.6001615019</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6950,14 +6950,14 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91136.fa</t>
+          <t>even_MAG-GUT67253.fa</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>85985.41939423655</v>
+        <v>73039.17397821844</v>
       </c>
       <c r="C284" t="n">
-        <v>85985.41939423655</v>
+        <v>73039.17397821844</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6973,14 +6973,14 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91276.fa</t>
+          <t>even_MAG-GUT67256.fa</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>67559.59073513668</v>
+        <v>92827.97170394195</v>
       </c>
       <c r="C285" t="n">
-        <v>67559.59073513668</v>
+        <v>92827.97170394195</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6996,14 +6996,14 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91278.fa</t>
+          <t>even_MAG-GUT67799.fa</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>72743.92966486733</v>
+        <v>63829.11642264511</v>
       </c>
       <c r="C286" t="n">
-        <v>72743.92966486733</v>
+        <v>63829.11642264511</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7019,14 +7019,14 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91345.fa</t>
+          <t>even_MAG-GUT68086.fa</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>83672.352667571</v>
+        <v>56941.8506369285</v>
       </c>
       <c r="C287" t="n">
-        <v>83672.352667571</v>
+        <v>56941.8506369285</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7042,14 +7042,14 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91364.fa</t>
+          <t>even_MAG-GUT68216.fa</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>83402.30182382207</v>
+        <v>65418.04146956159</v>
       </c>
       <c r="C288" t="n">
-        <v>83402.30182382207</v>
+        <v>65418.04146956159</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7065,14 +7065,14 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91383.fa</t>
+          <t>even_MAG-GUT68260.fa</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>66040.18241534985</v>
+        <v>48224.63881740821</v>
       </c>
       <c r="C289" t="n">
-        <v>66040.18241534985</v>
+        <v>48224.63881740821</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7088,14 +7088,14 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91475.fa</t>
+          <t>even_MAG-GUT68570.fa</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>84374.62492048189</v>
+        <v>70806.7540936986</v>
       </c>
       <c r="C290" t="n">
-        <v>84374.62492048189</v>
+        <v>70806.7540936986</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7111,14 +7111,14 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91600.fa</t>
+          <t>even_MAG-GUT68726.fa</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>87831.17965002434</v>
+        <v>73857.27040068047</v>
       </c>
       <c r="C291" t="n">
-        <v>87831.17965002434</v>
+        <v>73857.27040068047</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7134,14 +7134,14 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91603.fa</t>
+          <t>even_MAG-GUT68810.fa</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>86709.97342202716</v>
+        <v>87885.64290855397</v>
       </c>
       <c r="C292" t="n">
-        <v>86709.97342202716</v>
+        <v>87885.64290855397</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7157,14 +7157,14 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91866.fa</t>
+          <t>even_MAG-GUT68872.fa</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>67780.73761036973</v>
+        <v>63778.92374635371</v>
       </c>
       <c r="C293" t="n">
-        <v>67780.73761036973</v>
+        <v>63778.92374635371</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7180,14 +7180,14 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91873.fa</t>
+          <t>even_MAG-GUT69096.fa</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>96241.50571646813</v>
+        <v>80361.65073422798</v>
       </c>
       <c r="C294" t="n">
-        <v>96241.50571646813</v>
+        <v>80361.65073422798</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7203,14 +7203,14 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91938.fa</t>
+          <t>even_MAG-GUT69113.fa</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>81914.44542089054</v>
+        <v>54322.39050200149</v>
       </c>
       <c r="C295" t="n">
-        <v>81914.44542089054</v>
+        <v>54322.39050200149</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7226,14 +7226,14 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91964.fa</t>
+          <t>even_MAG-GUT69123.fa</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>79421.24521937263</v>
+        <v>77018.82670003615</v>
       </c>
       <c r="C296" t="n">
-        <v>79421.24521937263</v>
+        <v>77018.82670003615</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7249,14 +7249,14 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91970.fa</t>
+          <t>even_MAG-GUT69144.fa</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>77982.45065896341</v>
+        <v>68205.26330163037</v>
       </c>
       <c r="C297" t="n">
-        <v>77982.45065896341</v>
+        <v>68205.26330163037</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7272,14 +7272,14 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91971.fa</t>
+          <t>even_MAG-GUT69198.fa</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>93784.92373714643</v>
+        <v>61538.78096694899</v>
       </c>
       <c r="C298" t="n">
-        <v>93784.92373714643</v>
+        <v>61538.78096694899</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7295,14 +7295,14 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91990.fa</t>
+          <t>even_MAG-GUT69367.fa</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>74773.898003272</v>
+        <v>61889.26221769878</v>
       </c>
       <c r="C299" t="n">
-        <v>74773.898003272</v>
+        <v>61889.26221769878</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7318,14 +7318,14 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91993.fa</t>
+          <t>even_MAG-GUT69378.fa</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>94290.21051204251</v>
+        <v>69310.84868817565</v>
       </c>
       <c r="C300" t="n">
-        <v>94290.21051204251</v>
+        <v>69310.84868817565</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7341,14 +7341,14 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92001.fa</t>
+          <t>even_MAG-GUT69417.fa</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>83783.01198410311</v>
+        <v>70307.80873693957</v>
       </c>
       <c r="C301" t="n">
-        <v>83783.01198410311</v>
+        <v>70307.80873693957</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7364,14 +7364,14 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92091.fa</t>
+          <t>even_MAG-GUT69483.fa</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>97537.04407310049</v>
+        <v>78391.63518963862</v>
       </c>
       <c r="C302" t="n">
-        <v>97537.04407310049</v>
+        <v>78391.63518963862</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7387,21 +7387,3448 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT69551.fa</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>91157.7458748643</v>
+      </c>
+      <c r="C303" t="n">
+        <v>91157.7458748643</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69771.fa</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>39418.5629684114</v>
+      </c>
+      <c r="C304" t="n">
+        <v>39418.5629684114</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7031.fa</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>42763.08771209003</v>
+      </c>
+      <c r="C305" t="n">
+        <v>42763.08771209003</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7040.fa</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>38391.0696967477</v>
+      </c>
+      <c r="C306" t="n">
+        <v>38391.0696967477</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7088.fa</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>101967.0230207288</v>
+      </c>
+      <c r="C307" t="n">
+        <v>101967.0230207288</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7095.fa</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>89890.57619601386</v>
+      </c>
+      <c r="C308" t="n">
+        <v>89890.57619601386</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7099.fa</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>81810.96689423147</v>
+      </c>
+      <c r="C309" t="n">
+        <v>81810.96689423147</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7105.fa</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>95928.29702649511</v>
+      </c>
+      <c r="C310" t="n">
+        <v>95928.29702649511</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7112.fa</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>81810.96689423147</v>
+      </c>
+      <c r="C311" t="n">
+        <v>81810.96689423147</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7120.fa</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>83153.65040353288</v>
+      </c>
+      <c r="C312" t="n">
+        <v>83153.65040353288</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7132.fa</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>93276.76740304452</v>
+      </c>
+      <c r="C313" t="n">
+        <v>93276.76740304452</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7155.fa</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>82435.06599727555</v>
+      </c>
+      <c r="C314" t="n">
+        <v>82435.06599727555</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7161.fa</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>83751.79787185788</v>
+      </c>
+      <c r="C315" t="n">
+        <v>83751.79787185788</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7166.fa</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>77795.8304212901</v>
+      </c>
+      <c r="C316" t="n">
+        <v>77795.8304212901</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7197.fa</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>93061.39301160024</v>
+      </c>
+      <c r="C317" t="n">
+        <v>93061.39301160024</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7210.fa</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>76281.00386827471</v>
+      </c>
+      <c r="C318" t="n">
+        <v>76281.00386827471</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72119.fa</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>57914.70065656201</v>
+      </c>
+      <c r="C319" t="n">
+        <v>57914.70065656201</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72127.fa</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>70583.99385867626</v>
+      </c>
+      <c r="C320" t="n">
+        <v>70583.99385867626</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7229.fa</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>91197.87479266569</v>
+      </c>
+      <c r="C321" t="n">
+        <v>91197.87479266569</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7247.fa</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>73739.42994370403</v>
+      </c>
+      <c r="C322" t="n">
+        <v>73739.42994370403</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT73491.fa</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>49769.52659351204</v>
+      </c>
+      <c r="C323" t="n">
+        <v>49769.52659351204</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74329.fa</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>83312.33851195888</v>
+      </c>
+      <c r="C324" t="n">
+        <v>83312.33851195888</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74380.fa</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>70576.62337595175</v>
+      </c>
+      <c r="C325" t="n">
+        <v>70576.62337595175</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75402.fa</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>77449.51666532821</v>
+      </c>
+      <c r="C326" t="n">
+        <v>77449.51666532821</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75430.fa</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>64867.23133170031</v>
+      </c>
+      <c r="C327" t="n">
+        <v>64867.23133170031</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7546.fa</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>81446.96061911738</v>
+      </c>
+      <c r="C328" t="n">
+        <v>81446.96061911738</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75522.fa</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>79052.53680739312</v>
+      </c>
+      <c r="C329" t="n">
+        <v>79052.53680739312</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79350.fa</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>62870.90689126683</v>
+      </c>
+      <c r="C330" t="n">
+        <v>62870.90689126683</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80385.fa</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>39058.07664379958</v>
+      </c>
+      <c r="C331" t="n">
+        <v>39058.07664379958</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80453.fa</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>84273.76226096605</v>
+      </c>
+      <c r="C332" t="n">
+        <v>84273.76226096605</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80718.fa</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>41580.7779055732</v>
+      </c>
+      <c r="C333" t="n">
+        <v>41580.7779055732</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80771.fa</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>77624.32220483111</v>
+      </c>
+      <c r="C334" t="n">
+        <v>77624.32220483111</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80816.fa</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>70657.64784040111</v>
+      </c>
+      <c r="C335" t="n">
+        <v>70657.64784040111</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81523.fa</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>15191.19651391051</v>
+      </c>
+      <c r="C336" t="n">
+        <v>15191.19651391051</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81679.fa</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>84934.54080397343</v>
+      </c>
+      <c r="C337" t="n">
+        <v>84934.54080397343</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81926.fa</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>77387.46073098571</v>
+      </c>
+      <c r="C338" t="n">
+        <v>77387.46073098571</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81946.fa</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>80882.37562577522</v>
+      </c>
+      <c r="C339" t="n">
+        <v>80882.37562577522</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81987.fa</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>84934.54080397343</v>
+      </c>
+      <c r="C340" t="n">
+        <v>84934.54080397343</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82039.fa</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>42961.38592254018</v>
+      </c>
+      <c r="C341" t="n">
+        <v>42961.38592254018</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82105.fa</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>61929.48695825794</v>
+      </c>
+      <c r="C342" t="n">
+        <v>61929.48695825794</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82160.fa</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>76291.18940479033</v>
+      </c>
+      <c r="C343" t="n">
+        <v>76291.18940479033</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82436.fa</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>88467.91417457286</v>
+      </c>
+      <c r="C344" t="n">
+        <v>88467.91417457286</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82468.fa</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>71738.13920129932</v>
+      </c>
+      <c r="C345" t="n">
+        <v>71738.13920129932</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82509.fa</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>66923.43651469181</v>
+      </c>
+      <c r="C346" t="n">
+        <v>66923.43651469181</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82562.fa</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>66923.43651469181</v>
+      </c>
+      <c r="C347" t="n">
+        <v>66923.43651469181</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82635.fa</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>68305.7152170472</v>
+      </c>
+      <c r="C348" t="n">
+        <v>68305.7152170472</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82654.fa</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>69766.61017268753</v>
+      </c>
+      <c r="C349" t="n">
+        <v>69766.61017268753</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82703.fa</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>63882.5706416555</v>
+      </c>
+      <c r="C350" t="n">
+        <v>63882.5706416555</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82738.fa</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>48670.87010689786</v>
+      </c>
+      <c r="C351" t="n">
+        <v>48670.87010689786</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82744.fa</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>76126.13025027036</v>
+      </c>
+      <c r="C352" t="n">
+        <v>76126.13025027036</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84598.fa</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>87196.45718334118</v>
+      </c>
+      <c r="C353" t="n">
+        <v>87196.45718334118</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84613.fa</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>58770.87667585809</v>
+      </c>
+      <c r="C354" t="n">
+        <v>58770.87667585809</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85104.fa</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>61050.65565626651</v>
+      </c>
+      <c r="C355" t="n">
+        <v>61050.65565626651</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85904.fa</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>26775.24495553064</v>
+      </c>
+      <c r="C356" t="n">
+        <v>26775.24495553064</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85919.fa</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>26787.39225793381</v>
+      </c>
+      <c r="C357" t="n">
+        <v>26787.39225793381</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86853.fa</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>54772.95826141443</v>
+      </c>
+      <c r="C358" t="n">
+        <v>54772.95826141443</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86870.fa</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>69697.46222388418</v>
+      </c>
+      <c r="C359" t="n">
+        <v>69697.46222388418</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86935.fa</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>44682.25546545726</v>
+      </c>
+      <c r="C360" t="n">
+        <v>44682.25546545726</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87208.fa</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>59526.88517934641</v>
+      </c>
+      <c r="C361" t="n">
+        <v>59526.88517934641</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87297.fa</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>45372.97141847962</v>
+      </c>
+      <c r="C362" t="n">
+        <v>45372.97141847962</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87358.fa</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>52197.20879535582</v>
+      </c>
+      <c r="C363" t="n">
+        <v>52197.20879535582</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87479.fa</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>49313.74424580664</v>
+      </c>
+      <c r="C364" t="n">
+        <v>49313.74424580664</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87575.fa</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>50807.5086494135</v>
+      </c>
+      <c r="C365" t="n">
+        <v>50807.5086494135</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87793.fa</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>39532.07932743276</v>
+      </c>
+      <c r="C366" t="n">
+        <v>39532.07932743276</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87821.fa</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>78282.93604239151</v>
+      </c>
+      <c r="C367" t="n">
+        <v>78282.93604239151</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87833.fa</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>50314.49400158471</v>
+      </c>
+      <c r="C368" t="n">
+        <v>50314.49400158471</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87873.fa</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>83243.32620619795</v>
+      </c>
+      <c r="C369" t="n">
+        <v>83243.32620619795</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88081.fa</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>57432.18593665579</v>
+      </c>
+      <c r="C370" t="n">
+        <v>57432.18593665579</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88255.fa</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>52351.02671326195</v>
+      </c>
+      <c r="C371" t="n">
+        <v>52351.02671326195</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88263.fa</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>50224.71577492116</v>
+      </c>
+      <c r="C372" t="n">
+        <v>50224.71577492116</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88291.fa</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>58957.01196911698</v>
+      </c>
+      <c r="C373" t="n">
+        <v>58957.01196911698</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88563.fa</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>53470.06956381872</v>
+      </c>
+      <c r="C374" t="n">
+        <v>53470.06956381872</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88626.fa</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>39964.69422058511</v>
+      </c>
+      <c r="C375" t="n">
+        <v>39964.69422058511</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88680.fa</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>56636.27019292575</v>
+      </c>
+      <c r="C376" t="n">
+        <v>56636.27019292575</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88854.fa</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>42444.53666109921</v>
+      </c>
+      <c r="C377" t="n">
+        <v>42444.53666109921</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88891.fa</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>40433.33631884564</v>
+      </c>
+      <c r="C378" t="n">
+        <v>40433.33631884564</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88995.fa</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>57432.18593665579</v>
+      </c>
+      <c r="C379" t="n">
+        <v>57432.18593665579</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89009.fa</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>47042.25273655781</v>
+      </c>
+      <c r="C380" t="n">
+        <v>47042.25273655781</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89180.fa</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C381" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89205.fa</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>82792.60931118943</v>
+      </c>
+      <c r="C382" t="n">
+        <v>82792.60931118943</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89206.fa</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C383" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89239.fa</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>36794.07296304278</v>
+      </c>
+      <c r="C384" t="n">
+        <v>36794.07296304278</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89279.fa</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>60932.87629342044</v>
+      </c>
+      <c r="C385" t="n">
+        <v>60932.87629342044</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89290.fa</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C386" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89291.fa</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>92883.98599631902</v>
+      </c>
+      <c r="C387" t="n">
+        <v>92883.98599631902</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89315.fa</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>64139.26256642051</v>
+      </c>
+      <c r="C388" t="n">
+        <v>64139.26256642051</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89318.fa</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="C389" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89323.fa</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>35619.77739392121</v>
+      </c>
+      <c r="C390" t="n">
+        <v>35619.77739392121</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89344.fa</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>51708.19256442961</v>
+      </c>
+      <c r="C391" t="n">
+        <v>51708.19256442961</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89353.fa</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C392" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89356.fa</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="C393" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89364.fa</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>79896.80811769197</v>
+      </c>
+      <c r="C394" t="n">
+        <v>79896.80811769197</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89416.fa</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>58541.62393694448</v>
+      </c>
+      <c r="C395" t="n">
+        <v>58541.62393694448</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89571.fa</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>48147.91881701296</v>
+      </c>
+      <c r="C396" t="n">
+        <v>48147.91881701296</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89717.fa</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>78338.39428028517</v>
+      </c>
+      <c r="C397" t="n">
+        <v>78338.39428028517</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89719.fa</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C398" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89868.fa</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="C399" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89896.fa</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>61263.64527110213</v>
+      </c>
+      <c r="C400" t="n">
+        <v>61263.64527110213</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90076.fa</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>91497.36089189586</v>
+      </c>
+      <c r="C401" t="n">
+        <v>91497.36089189586</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90087.fa</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="C402" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90108.fa</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>82284.56851013508</v>
+      </c>
+      <c r="C403" t="n">
+        <v>82284.56851013508</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90109.fa</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C404" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90165.fa</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C405" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90168.fa</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>83942.59179733276</v>
+      </c>
+      <c r="C406" t="n">
+        <v>83942.59179733276</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90190.fa</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>82792.60931118943</v>
+      </c>
+      <c r="C407" t="n">
+        <v>82792.60931118943</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90191.fa</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>64139.26256642051</v>
+      </c>
+      <c r="C408" t="n">
+        <v>64139.26256642051</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90290.fa</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>54722.05502278278</v>
+      </c>
+      <c r="C409" t="n">
+        <v>54722.05502278278</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90292.fa</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>96362.85159920862</v>
+      </c>
+      <c r="C410" t="n">
+        <v>96362.85159920862</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90323.fa</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="C411" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90367.fa</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>83991.97396420337</v>
+      </c>
+      <c r="C412" t="n">
+        <v>83991.97396420337</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90479.fa</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>55365.83646989292</v>
+      </c>
+      <c r="C413" t="n">
+        <v>55365.83646989292</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90502.fa</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>48147.91881701296</v>
+      </c>
+      <c r="C414" t="n">
+        <v>48147.91881701296</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90506.fa</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C415" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90600.fa</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>60757.48014228143</v>
+      </c>
+      <c r="C416" t="n">
+        <v>60757.48014228143</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90634.fa</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>76491.30288642002</v>
+      </c>
+      <c r="C417" t="n">
+        <v>76491.30288642002</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90686.fa</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>53278.1318839646</v>
+      </c>
+      <c r="C418" t="n">
+        <v>53278.1318839646</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90699.fa</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="C419" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90947.fa</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="C420" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90976.fa</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C421" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90977.fa</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="C422" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91033.fa</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>90698.77918776635</v>
+      </c>
+      <c r="C423" t="n">
+        <v>90698.77918776635</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91042.fa</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="C424" t="n">
+        <v>60184.79848813674</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91117.fa</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="C425" t="n">
+        <v>85824.70437646414</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91118.fa</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C426" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91136.fa</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>85985.41939423655</v>
+      </c>
+      <c r="C427" t="n">
+        <v>85985.41939423655</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="C428" t="n">
+        <v>61346.33173357756</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91276.fa</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>67559.59073513668</v>
+      </c>
+      <c r="C429" t="n">
+        <v>67559.59073513668</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91278.fa</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>72743.92966486733</v>
+      </c>
+      <c r="C430" t="n">
+        <v>72743.92966486733</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91345.fa</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>83672.352667571</v>
+      </c>
+      <c r="C431" t="n">
+        <v>83672.352667571</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91364.fa</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>83402.30182382207</v>
+      </c>
+      <c r="C432" t="n">
+        <v>83402.30182382207</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91383.fa</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>66040.18241534985</v>
+      </c>
+      <c r="C433" t="n">
+        <v>66040.18241534985</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91475.fa</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>84374.62492048189</v>
+      </c>
+      <c r="C434" t="n">
+        <v>84374.62492048189</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91600.fa</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>87831.17965002434</v>
+      </c>
+      <c r="C435" t="n">
+        <v>87831.17965002434</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91603.fa</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>86709.97342202716</v>
+      </c>
+      <c r="C436" t="n">
+        <v>86709.97342202716</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91866.fa</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>67780.73761036973</v>
+      </c>
+      <c r="C437" t="n">
+        <v>67780.73761036973</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91873.fa</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>96241.50571646813</v>
+      </c>
+      <c r="C438" t="n">
+        <v>96241.50571646813</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91938.fa</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>81914.44542089054</v>
+      </c>
+      <c r="C439" t="n">
+        <v>81914.44542089054</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91964.fa</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>79421.24521937263</v>
+      </c>
+      <c r="C440" t="n">
+        <v>79421.24521937263</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91970.fa</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>77982.45065896341</v>
+      </c>
+      <c r="C441" t="n">
+        <v>77982.45065896341</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91971.fa</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>93784.92373714643</v>
+      </c>
+      <c r="C442" t="n">
+        <v>93784.92373714643</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91990.fa</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>74773.898003272</v>
+      </c>
+      <c r="C443" t="n">
+        <v>74773.898003272</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91993.fa</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>94290.21051204251</v>
+      </c>
+      <c r="C444" t="n">
+        <v>94290.21051204251</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92001.fa</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>83783.01198410311</v>
+      </c>
+      <c r="C445" t="n">
+        <v>83783.01198410311</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92091.fa</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>97537.04407310049</v>
+      </c>
+      <c r="C446" t="n">
+        <v>97537.04407310049</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9303.fa</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>92459.43593189229</v>
+      </c>
+      <c r="C447" t="n">
+        <v>92459.43593189229</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9316.fa</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>99420.93470539208</v>
+      </c>
+      <c r="C448" t="n">
+        <v>99420.93470539208</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9364.fa</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>92177.16770618882</v>
+      </c>
+      <c r="C449" t="n">
+        <v>92177.16770618882</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9376.fa</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>96777.60243297416</v>
+      </c>
+      <c r="C450" t="n">
+        <v>96777.60243297416</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT956.fa</t>
         </is>
       </c>
-      <c r="B303" t="n">
+      <c r="B451" t="n">
         <v>82478.5535129507</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C451" t="n">
         <v>82478.5535129507</v>
       </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9659.fa</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>55993.40257445154</v>
+      </c>
+      <c r="C452" t="n">
+        <v>55993.40257445154</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
         <is>
           <t>c__Negativicutes</t>
         </is>
